--- a/notebooks/BP_Beam/comparative_cluster_analysis.xlsx
+++ b/notebooks/BP_Beam/comparative_cluster_analysis.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM4"/>
+  <dimension ref="A1:CM5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1101,13 +1101,13 @@
         <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>210.721364996</v>
+        <v>210.01113473</v>
       </c>
       <c r="C4" t="n">
-        <v>9.99860995305125</v>
+        <v>10.74604772537301</v>
       </c>
       <c r="D4" t="n">
-        <v>210.498058</v>
+        <v>210.85451195</v>
       </c>
       <c r="E4" t="n">
         <v>192.3989935</v>
@@ -1116,13 +1116,13 @@
         <v>226.6997537</v>
       </c>
       <c r="G4" t="n">
-        <v>627.57973</v>
+        <v>608.3607250000001</v>
       </c>
       <c r="H4" t="n">
-        <v>164.8822424639231</v>
+        <v>190.6486540563717</v>
       </c>
       <c r="I4" t="n">
-        <v>646.2639999999992</v>
+        <v>658.3217500000001</v>
       </c>
       <c r="J4" t="n">
         <v>246.2612500000014</v>
@@ -1146,43 +1146,43 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>106.84</v>
+        <v>110.4</v>
       </c>
       <c r="R4" t="n">
-        <v>70.89174846200368</v>
+        <v>82.79720875595854</v>
       </c>
       <c r="S4" t="n">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U4" t="n">
         <v>257</v>
       </c>
       <c r="V4" t="n">
-        <v>26.56</v>
+        <v>49.7</v>
       </c>
       <c r="W4" t="n">
-        <v>32.68037127492077</v>
+        <v>41.64412723702267</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>135</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.12</v>
+        <v>14.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>14.26335631376197</v>
+        <v>20.92977676793414</v>
       </c>
       <c r="AC4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -1191,58 +1191,58 @@
         <v>68</v>
       </c>
       <c r="AF4" t="n">
-        <v>500.8</v>
+        <v>722.1</v>
       </c>
       <c r="AG4" t="n">
-        <v>389.8605519926323</v>
+        <v>532.3157897338759</v>
       </c>
       <c r="AH4" t="n">
-        <v>387</v>
+        <v>532</v>
       </c>
       <c r="AI4" t="n">
-        <v>178</v>
+        <v>266</v>
       </c>
       <c r="AJ4" t="n">
         <v>1821</v>
       </c>
       <c r="AK4" t="n">
-        <v>47.96</v>
+        <v>52.8</v>
       </c>
       <c r="AL4" t="n">
-        <v>6.268173577685928</v>
+        <v>7.02060459568041</v>
       </c>
       <c r="AM4" t="n">
-        <v>47</v>
+        <v>50.5</v>
       </c>
       <c r="AN4" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AO4" t="n">
         <v>65</v>
       </c>
       <c r="AP4" t="n">
-        <v>43.48</v>
+        <v>66.3</v>
       </c>
       <c r="AQ4" t="n">
-        <v>25.02851706886899</v>
+        <v>20.51043095056215</v>
       </c>
       <c r="AR4" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="AS4" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AT4" t="n">
         <v>98</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.000392</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.0003893584466786357</v>
+        <v>0.0005232377832092956</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0002</v>
+        <v>0.0004</v>
       </c>
       <c r="AX4" t="n">
         <v>0.0002</v>
@@ -1251,13 +1251,13 @@
         <v>0.0014</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13.28</v>
+        <v>17</v>
       </c>
       <c r="BA4" t="n">
-        <v>5.77003755042663</v>
+        <v>7.393691004272945</v>
       </c>
       <c r="BB4" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="BC4" t="n">
         <v>10</v>
@@ -1266,16 +1266,16 @@
         <v>26</v>
       </c>
       <c r="BE4" t="n">
-        <v>7.08</v>
+        <v>10.8</v>
       </c>
       <c r="BF4" t="n">
-        <v>6.264449962553243</v>
+        <v>7.495183638696105</v>
       </c>
       <c r="BG4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BH4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI4" t="n">
         <v>21</v>
@@ -1296,61 +1296,61 @@
         <v>40</v>
       </c>
       <c r="BO4" t="n">
-        <v>40</v>
+        <v>59.5</v>
       </c>
       <c r="BP4" t="n">
-        <v>28.60361282542236</v>
+        <v>22.70707183040365</v>
       </c>
       <c r="BQ4" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BS4" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="BT4" t="n">
-        <v>82.64</v>
+        <v>114.7</v>
       </c>
       <c r="BU4" t="n">
-        <v>54.01610870842141</v>
+        <v>43.85341745203242</v>
       </c>
       <c r="BV4" t="n">
-        <v>76</v>
+        <v>103.5</v>
       </c>
       <c r="BW4" t="n">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="BX4" t="n">
         <v>222</v>
       </c>
       <c r="BY4" t="n">
-        <v>47392.92</v>
+        <v>94050.39999999999</v>
       </c>
       <c r="BZ4" t="n">
-        <v>88494.93092023219</v>
+        <v>129297.9810284926</v>
       </c>
       <c r="CA4" t="n">
-        <v>18712</v>
+        <v>34818.5</v>
       </c>
       <c r="CB4" t="n">
-        <v>6253</v>
+        <v>11605</v>
       </c>
       <c r="CC4" t="n">
         <v>425493</v>
       </c>
       <c r="CD4" t="n">
-        <v>24323.36</v>
+        <v>56998.2</v>
       </c>
       <c r="CE4" t="n">
-        <v>76197.75995716672</v>
+        <v>116192.7297905414</v>
       </c>
       <c r="CF4" t="n">
-        <v>3009</v>
+        <v>6814</v>
       </c>
       <c r="CG4" t="n">
-        <v>1074</v>
+        <v>1684</v>
       </c>
       <c r="CH4" t="n">
         <v>374382</v>
@@ -1369,6 +1369,281 @@
       </c>
       <c r="CM4" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>211.19485184</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.825723641890006</v>
+      </c>
+      <c r="D5" t="n">
+        <v>210.498058</v>
+      </c>
+      <c r="E5" t="n">
+        <v>195.3003592</v>
+      </c>
+      <c r="F5" t="n">
+        <v>225.7372588</v>
+      </c>
+      <c r="G5" t="n">
+        <v>640.3924000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>150.9941674031951</v>
+      </c>
+      <c r="I5" t="n">
+        <v>646.2639999999992</v>
+      </c>
+      <c r="J5" t="n">
+        <v>324.8987499999985</v>
+      </c>
+      <c r="K5" t="n">
+        <v>828.7030000000013</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>104.4666666666667</v>
+      </c>
+      <c r="R5" t="n">
+        <v>64.75543735213799</v>
+      </c>
+      <c r="S5" t="n">
+        <v>105</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>208</v>
+      </c>
+      <c r="V5" t="n">
+        <v>11.13333333333333</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8.862978108535582</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.52127765851133</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>353.2666666666667</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>141.7545497716118</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>349</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>178</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>688</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>44.73333333333333</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.789435853528878</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>28.26666666666667</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>13.54604141789173</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.0002266666666666667</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.0001032795558988644</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>2.336052836975837</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>19</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>3.832194447795452</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>40</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>40</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>40</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>40</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>27</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>24.8682241309783</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>100</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>61.26666666666667</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>50.41749507387103</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>43</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>16</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>200</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>16287.93333333333</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>9291.888747463461</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>14878</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>6253</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>38168</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>2540.133333333333</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>1803.304184255219</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>1777</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>1074</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>7048</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2040,34 +2315,34 @@
         <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>4721.084680902817</v>
+        <v>4711.992042395238</v>
       </c>
       <c r="C4" t="n">
-        <v>59.96721247840537</v>
+        <v>64.77081356909478</v>
       </c>
       <c r="D4" t="n">
-        <v>4744.037481</v>
+        <v>4734.2897002</v>
       </c>
       <c r="E4" t="n">
-        <v>4605.1287125</v>
+        <v>4607.3460697</v>
       </c>
       <c r="F4" t="n">
-        <v>4789.767385</v>
+        <v>4788.4698077</v>
       </c>
       <c r="G4" t="n">
-        <v>3488.053422535211</v>
+        <v>3300.017499999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1083.191461547295</v>
+        <v>1201.335798901628</v>
       </c>
       <c r="I4" t="n">
-        <v>4036.588749999999</v>
+        <v>3889.2745</v>
       </c>
       <c r="J4" t="n">
-        <v>962.9110000000001</v>
+        <v>1026.869499999999</v>
       </c>
       <c r="K4" t="n">
-        <v>4478.007249999999</v>
+        <v>4457.037250000001</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -2085,13 +2360,13 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>118.0845070422535</v>
+        <v>119.3333333333333</v>
       </c>
       <c r="R4" t="n">
-        <v>88.28618181457604</v>
+        <v>120.3251151394975</v>
       </c>
       <c r="S4" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -2100,13 +2375,13 @@
         <v>442</v>
       </c>
       <c r="V4" t="n">
-        <v>53.2112676056338</v>
+        <v>59.71428571428572</v>
       </c>
       <c r="W4" t="n">
-        <v>31.69809164736115</v>
+        <v>45.30799361828203</v>
       </c>
       <c r="X4" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y4" t="n">
         <v>3</v>
@@ -2115,10 +2390,10 @@
         <v>131</v>
       </c>
       <c r="AA4" t="n">
-        <v>16.23943661971831</v>
+        <v>25.80952380952381</v>
       </c>
       <c r="AB4" t="n">
-        <v>18.90764379725255</v>
+        <v>30.88951124187472</v>
       </c>
       <c r="AC4" t="n">
         <v>12</v>
@@ -2130,13 +2405,13 @@
         <v>118</v>
       </c>
       <c r="AF4" t="n">
-        <v>600.5633802816901</v>
+        <v>645.2380952380952</v>
       </c>
       <c r="AG4" t="n">
-        <v>348.8781912847588</v>
+        <v>470.2172800697466</v>
       </c>
       <c r="AH4" t="n">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="AI4" t="n">
         <v>93</v>
@@ -2145,13 +2420,13 @@
         <v>1747</v>
       </c>
       <c r="AK4" t="n">
-        <v>56.3943661971831</v>
+        <v>58.19047619047619</v>
       </c>
       <c r="AL4" t="n">
-        <v>8.415086576652396</v>
+        <v>12.06490384387313</v>
       </c>
       <c r="AM4" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AN4" t="n">
         <v>42</v>
@@ -2160,13 +2435,13 @@
         <v>75</v>
       </c>
       <c r="AP4" t="n">
-        <v>90.83098591549296</v>
+        <v>92.71428571428571</v>
       </c>
       <c r="AQ4" t="n">
-        <v>28.61866819078212</v>
+        <v>35.77588972638257</v>
       </c>
       <c r="AR4" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AS4" t="n">
         <v>16</v>
@@ -2175,13 +2450,13 @@
         <v>151</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.001363380281690141</v>
+        <v>0.001790476190476191</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.001939163253763976</v>
+        <v>0.003125684686897378</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0004</v>
       </c>
       <c r="AX4" t="n">
         <v>0.0002</v>
@@ -2190,13 +2465,13 @@
         <v>0.0126</v>
       </c>
       <c r="AZ4" t="n">
-        <v>20.3943661971831</v>
+        <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>9.401335578734752</v>
+        <v>11.04083330188442</v>
       </c>
       <c r="BB4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BC4" t="n">
         <v>10</v>
@@ -2205,13 +2480,13 @@
         <v>45</v>
       </c>
       <c r="BE4" t="n">
-        <v>13.42253521126761</v>
+        <v>12.90476190476191</v>
       </c>
       <c r="BF4" t="n">
-        <v>9.072189799965582</v>
+        <v>11.47128921222354</v>
       </c>
       <c r="BG4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BH4" t="n">
         <v>1</v>
@@ -2235,13 +2510,13 @@
         <v>40</v>
       </c>
       <c r="BO4" t="n">
-        <v>97.70422535211267</v>
+        <v>124.3333333333333</v>
       </c>
       <c r="BP4" t="n">
-        <v>58.95576898130548</v>
+        <v>92.7697867483446</v>
       </c>
       <c r="BQ4" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="BR4" t="n">
         <v>12</v>
@@ -2250,13 +2525,13 @@
         <v>333</v>
       </c>
       <c r="BT4" t="n">
-        <v>155.112676056338</v>
+        <v>217.2857142857143</v>
       </c>
       <c r="BU4" t="n">
-        <v>151.3343081955382</v>
+        <v>264.4430265401497</v>
       </c>
       <c r="BV4" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="BW4" t="n">
         <v>11</v>
@@ -2265,10 +2540,10 @@
         <v>1000</v>
       </c>
       <c r="BY4" t="n">
-        <v>103971.7183098591</v>
+        <v>163479.4761904762</v>
       </c>
       <c r="BZ4" t="n">
-        <v>118322.6533942777</v>
+        <v>193399.6041000651</v>
       </c>
       <c r="CA4" t="n">
         <v>76189</v>
@@ -2280,16 +2555,16 @@
         <v>741998</v>
       </c>
       <c r="CD4" t="n">
-        <v>56852.45070422535</v>
+        <v>86823.42857142857</v>
       </c>
       <c r="CE4" t="n">
-        <v>70021.64467787059</v>
+        <v>104948.2804606971</v>
       </c>
       <c r="CF4" t="n">
-        <v>29387</v>
+        <v>39690</v>
       </c>
       <c r="CG4" t="n">
-        <v>1108</v>
+        <v>1143</v>
       </c>
       <c r="CH4" t="n">
         <v>281911</v>
@@ -2315,13 +2590,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>4723.355790455985</v>
+        <v>4723.486296241821</v>
       </c>
       <c r="C5" t="n">
-        <v>53.07095388801477</v>
+        <v>53.46160767803189</v>
       </c>
       <c r="D5" t="n">
-        <v>4739.0140732</v>
+        <v>4740.1575297</v>
       </c>
       <c r="E5" t="n">
         <v>4600.2622207</v>
@@ -2330,13 +2605,13 @@
         <v>4789.9042092</v>
       </c>
       <c r="G5" t="n">
-        <v>3577.65663121547</v>
+        <v>3576.760499578415</v>
       </c>
       <c r="H5" t="n">
-        <v>930.021064026363</v>
+        <v>938.1326279763699</v>
       </c>
       <c r="I5" t="n">
-        <v>3959.524000000001</v>
+        <v>3974.203000000001</v>
       </c>
       <c r="J5" t="n">
         <v>871.6915000000008</v>
@@ -2360,40 +2635,40 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>79.96316758747697</v>
+        <v>83.13322091062395</v>
       </c>
       <c r="R5" t="n">
-        <v>57.31748288107578</v>
+        <v>59.57831088252643</v>
       </c>
       <c r="S5" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="T5" t="n">
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="V5" t="n">
-        <v>21.23941068139963</v>
+        <v>23.70489038785835</v>
       </c>
       <c r="W5" t="n">
-        <v>14.87505630312257</v>
+        <v>17.7772134278667</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
         <v>3</v>
       </c>
       <c r="Z5" t="n">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.125230202578269</v>
+        <v>3.892074198988196</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.918791498586813</v>
+        <v>4.429456976040439</v>
       </c>
       <c r="AC5" t="n">
         <v>2</v>
@@ -2402,46 +2677,46 @@
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="AF5" t="n">
-        <v>307.2136279926335</v>
+        <v>330.3659359190556</v>
       </c>
       <c r="AG5" t="n">
-        <v>153.9664458770208</v>
+        <v>185.3548805483248</v>
       </c>
       <c r="AH5" t="n">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="AI5" t="n">
         <v>58</v>
       </c>
       <c r="AJ5" t="n">
-        <v>839</v>
+        <v>1341</v>
       </c>
       <c r="AK5" t="n">
-        <v>48.04235727440147</v>
+        <v>48.68296795952782</v>
       </c>
       <c r="AL5" t="n">
-        <v>4.335136157390652</v>
+        <v>4.996349677039773</v>
       </c>
       <c r="AM5" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AN5" t="n">
         <v>41</v>
       </c>
       <c r="AO5" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="AP5" t="n">
-        <v>69.09944751381215</v>
+        <v>70.86509274873525</v>
       </c>
       <c r="AQ5" t="n">
-        <v>31.10198169533339</v>
+        <v>31.19249323403363</v>
       </c>
       <c r="AR5" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AS5" t="n">
         <v>9</v>
@@ -2450,10 +2725,10 @@
         <v>172</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0003152854511970534</v>
+        <v>0.0003885328836424958</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0002747126333341862</v>
+        <v>0.0004825362743834846</v>
       </c>
       <c r="AW5" t="n">
         <v>0.0002</v>
@@ -2462,13 +2737,13 @@
         <v>0.0002</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0022</v>
+        <v>0.0038</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13.12338858195212</v>
+        <v>13.7504215851602</v>
       </c>
       <c r="BA5" t="n">
-        <v>4.129529373980827</v>
+        <v>5.120022697539247</v>
       </c>
       <c r="BB5" t="n">
         <v>11</v>
@@ -2477,13 +2752,13 @@
         <v>9</v>
       </c>
       <c r="BD5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BE5" t="n">
-        <v>7.220994475138122</v>
+        <v>7.762225969645868</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.424333697069621</v>
+        <v>5.949601659065432</v>
       </c>
       <c r="BG5" t="n">
         <v>6</v>
@@ -2492,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="BI5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BJ5" t="n">
         <v>40</v>
@@ -2510,28 +2785,28 @@
         <v>40</v>
       </c>
       <c r="BO5" t="n">
-        <v>59.94475138121547</v>
+        <v>62.18549747048904</v>
       </c>
       <c r="BP5" t="n">
-        <v>31.97261116123604</v>
+        <v>32.78790346523678</v>
       </c>
       <c r="BQ5" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="BR5" t="n">
         <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="BT5" t="n">
-        <v>116.4585635359116</v>
+        <v>117.5160202360877</v>
       </c>
       <c r="BU5" t="n">
-        <v>65.16420951995664</v>
+        <v>63.6450526968387</v>
       </c>
       <c r="BV5" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="BW5" t="n">
         <v>9</v>
@@ -2540,34 +2815,34 @@
         <v>333</v>
       </c>
       <c r="BY5" t="n">
-        <v>22412.01657458564</v>
+        <v>27181.53119730185</v>
       </c>
       <c r="BZ5" t="n">
-        <v>18285.76365817013</v>
+        <v>27695.19425722436</v>
       </c>
       <c r="CA5" t="n">
-        <v>15814</v>
+        <v>17010</v>
       </c>
       <c r="CB5" t="n">
         <v>6280</v>
       </c>
       <c r="CC5" t="n">
-        <v>99512</v>
+        <v>198756</v>
       </c>
       <c r="CD5" t="n">
-        <v>5841.311453038674</v>
+        <v>9081.052477234402</v>
       </c>
       <c r="CE5" t="n">
-        <v>7996.926974652773</v>
+        <v>18306.60895800602</v>
       </c>
       <c r="CF5" t="n">
-        <v>2905</v>
+        <v>3081</v>
       </c>
       <c r="CG5" t="n">
         <v>733.76</v>
       </c>
       <c r="CH5" t="n">
-        <v>57261</v>
+        <v>155084</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
@@ -2616,7 +2891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM5"/>
+  <dimension ref="A1:CM6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3254,34 +3529,34 @@
         <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>5581.014254880247</v>
+        <v>5603.059628236842</v>
       </c>
       <c r="C4" t="n">
-        <v>90.63791784545782</v>
+        <v>79.37074559338677</v>
       </c>
       <c r="D4" t="n">
-        <v>5619.1991193</v>
+        <v>5636.6658923</v>
       </c>
       <c r="E4" t="n">
-        <v>5407.499715</v>
+        <v>5431.8134477</v>
       </c>
       <c r="F4" t="n">
-        <v>5681.7924997</v>
+        <v>5678.3637475</v>
       </c>
       <c r="G4" t="n">
-        <v>3644.495055555556</v>
+        <v>3964.711315789475</v>
       </c>
       <c r="H4" t="n">
-        <v>1254.460423448802</v>
+        <v>1081.186058146629</v>
       </c>
       <c r="I4" t="n">
-        <v>4290.850000000002</v>
+        <v>4500.549999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>1030.014999999999</v>
+        <v>1610.884</v>
       </c>
       <c r="K4" t="n">
-        <v>4871.719000000001</v>
+        <v>4852.321749999999</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -3299,28 +3574,28 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.4567901234568</v>
+        <v>186.2631578947368</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9504098522687</v>
+        <v>253.8047898386262</v>
       </c>
       <c r="S4" t="n">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="U4" t="n">
         <v>1145</v>
       </c>
       <c r="V4" t="n">
-        <v>56.33333333333334</v>
+        <v>84.31578947368421</v>
       </c>
       <c r="W4" t="n">
-        <v>35.1905527094986</v>
+        <v>43.54825246089286</v>
       </c>
       <c r="X4" t="n">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="Y4" t="n">
         <v>4</v>
@@ -3329,13 +3604,13 @@
         <v>166</v>
       </c>
       <c r="AA4" t="n">
-        <v>16.7037037037037</v>
+        <v>35.8421052631579</v>
       </c>
       <c r="AB4" t="n">
-        <v>18.3285599846554</v>
+        <v>26.89953150747495</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -3344,28 +3619,28 @@
         <v>97</v>
       </c>
       <c r="AF4" t="n">
-        <v>651.8765432098766</v>
+        <v>947.0526315789474</v>
       </c>
       <c r="AG4" t="n">
-        <v>387.8230067542424</v>
+        <v>506.9946826024258</v>
       </c>
       <c r="AH4" t="n">
-        <v>663</v>
+        <v>1016</v>
       </c>
       <c r="AI4" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AJ4" t="n">
         <v>2437</v>
       </c>
       <c r="AK4" t="n">
-        <v>56.03703703703704</v>
+        <v>61.57894736842105</v>
       </c>
       <c r="AL4" t="n">
-        <v>8.515345624876954</v>
+        <v>10.64746077957705</v>
       </c>
       <c r="AM4" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AN4" t="n">
         <v>42</v>
@@ -3374,25 +3649,25 @@
         <v>75</v>
       </c>
       <c r="AP4" t="n">
-        <v>87.92592592592592</v>
+        <v>85.94736842105263</v>
       </c>
       <c r="AQ4" t="n">
-        <v>32.05611399475059</v>
+        <v>25.49395066418378</v>
       </c>
       <c r="AR4" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.00125679012345679</v>
+        <v>0.001768421052631579</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.001897955365097197</v>
+        <v>0.002952410057258109</v>
       </c>
       <c r="AW4" t="n">
         <v>0.0002</v>
@@ -3404,10 +3679,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="AZ4" t="n">
-        <v>18.82716049382716</v>
+        <v>19.47368421052632</v>
       </c>
       <c r="BA4" t="n">
-        <v>9.784924786957726</v>
+        <v>11.33023693511517</v>
       </c>
       <c r="BB4" t="n">
         <v>15</v>
@@ -3419,16 +3694,16 @@
         <v>42</v>
       </c>
       <c r="BE4" t="n">
-        <v>13.14814814814815</v>
+        <v>17.42105263157895</v>
       </c>
       <c r="BF4" t="n">
-        <v>12.05001152604336</v>
+        <v>19.72678886262053</v>
       </c>
       <c r="BG4" t="n">
         <v>11</v>
       </c>
       <c r="BH4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI4" t="n">
         <v>93</v>
@@ -3449,61 +3724,61 @@
         <v>40</v>
       </c>
       <c r="BO4" t="n">
-        <v>89.70370370370371</v>
+        <v>106.5789473684211</v>
       </c>
       <c r="BP4" t="n">
-        <v>49.74747341434649</v>
+        <v>70.86475051460405</v>
       </c>
       <c r="BQ4" t="n">
         <v>88</v>
       </c>
       <c r="BR4" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="BS4" t="n">
         <v>333</v>
       </c>
       <c r="BT4" t="n">
-        <v>140.6913580246914</v>
+        <v>115.0526315789474</v>
       </c>
       <c r="BU4" t="n">
-        <v>69.05751986121943</v>
+        <v>47.07496820581981</v>
       </c>
       <c r="BV4" t="n">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="BW4" t="n">
         <v>17</v>
       </c>
       <c r="BX4" t="n">
-        <v>333</v>
+        <v>214</v>
       </c>
       <c r="BY4" t="n">
-        <v>107573.8518518519</v>
+        <v>227516.052631579</v>
       </c>
       <c r="BZ4" t="n">
-        <v>114695.3022097147</v>
+        <v>168294.7475391756</v>
       </c>
       <c r="CA4" t="n">
-        <v>70650</v>
+        <v>223983</v>
       </c>
       <c r="CB4" t="n">
-        <v>6445</v>
+        <v>6710</v>
       </c>
       <c r="CC4" t="n">
         <v>608493</v>
       </c>
       <c r="CD4" t="n">
-        <v>70981.63628395062</v>
+        <v>174614.8421052631</v>
       </c>
       <c r="CE4" t="n">
-        <v>97774.20779570036</v>
+        <v>141392.406081744</v>
       </c>
       <c r="CF4" t="n">
-        <v>28125</v>
+        <v>186335</v>
       </c>
       <c r="CG4" t="n">
-        <v>938.539</v>
+        <v>1007</v>
       </c>
       <c r="CH4" t="n">
         <v>393681</v>
@@ -3529,13 +3804,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>5625.892625425857</v>
+        <v>5621.241812317025</v>
       </c>
       <c r="C5" t="n">
-        <v>55.13026112327855</v>
+        <v>61.3256156583894</v>
       </c>
       <c r="D5" t="n">
-        <v>5642.5310931</v>
+        <v>5639.5339768</v>
       </c>
       <c r="E5" t="n">
         <v>5404.1809153</v>
@@ -3544,13 +3819,13 @@
         <v>5681.9177692</v>
       </c>
       <c r="G5" t="n">
-        <v>4270.458144859814</v>
+        <v>4205.1505</v>
       </c>
       <c r="H5" t="n">
-        <v>750.7703869344108</v>
+        <v>839.7864820581694</v>
       </c>
       <c r="I5" t="n">
-        <v>4561.363000000001</v>
+        <v>4535.674750000002</v>
       </c>
       <c r="J5" t="n">
         <v>964.4837500000012</v>
@@ -3574,10 +3849,10 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>80.07320872274143</v>
+        <v>82.92703862660944</v>
       </c>
       <c r="R5" t="n">
-        <v>57.26158003302356</v>
+        <v>62.72189582824593</v>
       </c>
       <c r="S5" t="n">
         <v>68</v>
@@ -3586,28 +3861,28 @@
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="V5" t="n">
-        <v>22.62305295950156</v>
+        <v>24.48068669527897</v>
       </c>
       <c r="W5" t="n">
-        <v>15.99633240024979</v>
+        <v>18.24783573422781</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
         <v>3</v>
       </c>
       <c r="Z5" t="n">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.476635514018692</v>
+        <v>4.005722460658083</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.393153962139128</v>
+        <v>4.445785665826891</v>
       </c>
       <c r="AC5" t="n">
         <v>2</v>
@@ -3616,28 +3891,28 @@
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AF5" t="n">
-        <v>318.6604361370717</v>
+        <v>336.1874105865522</v>
       </c>
       <c r="AG5" t="n">
-        <v>164.9714482699091</v>
+        <v>187.1875790626068</v>
       </c>
       <c r="AH5" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AI5" t="n">
         <v>76</v>
       </c>
       <c r="AJ5" t="n">
-        <v>926</v>
+        <v>1278</v>
       </c>
       <c r="AK5" t="n">
-        <v>48.46105919003115</v>
+        <v>48.89556509298998</v>
       </c>
       <c r="AL5" t="n">
-        <v>4.493629826406691</v>
+        <v>4.964829924312322</v>
       </c>
       <c r="AM5" t="n">
         <v>48</v>
@@ -3646,13 +3921,13 @@
         <v>41</v>
       </c>
       <c r="AO5" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AP5" t="n">
-        <v>69.75233644859813</v>
+        <v>71.29756795422031</v>
       </c>
       <c r="AQ5" t="n">
-        <v>28.18502555186573</v>
+        <v>29.25336671206785</v>
       </c>
       <c r="AR5" t="n">
         <v>71</v>
@@ -3661,13 +3936,13 @@
         <v>11</v>
       </c>
       <c r="AT5" t="n">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0004059190031152648</v>
+        <v>0.0004360515021459228</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0004512031200244002</v>
+        <v>0.0005182783685026501</v>
       </c>
       <c r="AW5" t="n">
         <v>0.0002</v>
@@ -3676,13 +3951,13 @@
         <v>0.0002</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0034</v>
+        <v>0.0044</v>
       </c>
       <c r="AZ5" t="n">
-        <v>14.25856697819315</v>
+        <v>14.48783977110157</v>
       </c>
       <c r="BA5" t="n">
-        <v>5.145780859865043</v>
+        <v>5.485673792704347</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
@@ -3691,13 +3966,13 @@
         <v>9</v>
       </c>
       <c r="BD5" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BE5" t="n">
-        <v>7.38785046728972</v>
+        <v>7.71101573676681</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.100002329944235</v>
+        <v>5.533128306138181</v>
       </c>
       <c r="BG5" t="n">
         <v>6</v>
@@ -3706,7 +3981,7 @@
         <v>1</v>
       </c>
       <c r="BI5" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="BJ5" t="n">
         <v>40</v>
@@ -3724,28 +3999,28 @@
         <v>40</v>
       </c>
       <c r="BO5" t="n">
-        <v>60.02336448598131</v>
+        <v>62.05865522174535</v>
       </c>
       <c r="BP5" t="n">
-        <v>30.31083507823486</v>
+        <v>32.13119138905525</v>
       </c>
       <c r="BQ5" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BR5" t="n">
         <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="BT5" t="n">
-        <v>113.2133956386293</v>
+        <v>116.2675250357654</v>
       </c>
       <c r="BU5" t="n">
-        <v>54.24316552271218</v>
+        <v>57.15380361487767</v>
       </c>
       <c r="BV5" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BW5" t="n">
         <v>7</v>
@@ -3754,34 +4029,34 @@
         <v>333</v>
       </c>
       <c r="BY5" t="n">
-        <v>24596.43457943925</v>
+        <v>27920.8469241774</v>
       </c>
       <c r="BZ5" t="n">
-        <v>21394.34938752947</v>
+        <v>27934.75948864727</v>
       </c>
       <c r="CA5" t="n">
-        <v>16272</v>
+        <v>17351</v>
       </c>
       <c r="CB5" t="n">
         <v>6246</v>
       </c>
       <c r="CC5" t="n">
-        <v>125297</v>
+        <v>221473</v>
       </c>
       <c r="CD5" t="n">
-        <v>7041.895503115265</v>
+        <v>9405.663021459226</v>
       </c>
       <c r="CE5" t="n">
-        <v>11083.50530280709</v>
+        <v>19048.96781777001</v>
       </c>
       <c r="CF5" t="n">
-        <v>2984</v>
+        <v>3263</v>
       </c>
       <c r="CG5" t="n">
         <v>798.0069999999999</v>
       </c>
       <c r="CH5" t="n">
-        <v>87066</v>
+        <v>234612</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
@@ -3797,6 +4072,281 @@
       </c>
       <c r="CM5" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5635.81208452</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33.93637780707947</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5656.9390235</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5583.7881157</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5660.0554657</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4421.702799999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>437.0046871910527</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4686.1345</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3714.69925</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4730.695749999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>51.61685771141052</v>
+      </c>
+      <c r="S6" t="n">
+        <v>130</v>
+      </c>
+      <c r="T6" t="n">
+        <v>74</v>
+      </c>
+      <c r="U6" t="n">
+        <v>202</v>
+      </c>
+      <c r="V6" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="W6" t="n">
+        <v>9.289779329994875</v>
+      </c>
+      <c r="X6" t="n">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>66</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.30384048104053</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>878.6</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>159.8461760568579</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>841</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>757</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1155</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.51657508881031</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>61</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>59</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>62</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>16.41036257978476</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>84</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>63</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>105</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.0003464101615137756</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.8944271909999157</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>37</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>35</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>37</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>5.366563145999495</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>18</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>24</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>17.92484309554759</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>80</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>99</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>19.65451602049768</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>121</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>97</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>148</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>132983.2</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>6856.214750137276</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>130147</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>128198</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>145064</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>75633.8</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>12084.39486279723</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>82622</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>61459</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>86004</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4769,7 +5319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM5"/>
+  <dimension ref="A1:CM6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5407,28 +5957,28 @@
         <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>862.0949989448718</v>
+        <v>858.38132086875</v>
       </c>
       <c r="C4" t="n">
-        <v>18.95872386718924</v>
+        <v>20.24734339748628</v>
       </c>
       <c r="D4" t="n">
-        <v>863.46112025</v>
+        <v>860.1422891</v>
       </c>
       <c r="E4" t="n">
         <v>824.498572</v>
       </c>
       <c r="F4" t="n">
-        <v>886.6301562</v>
+        <v>884.8000211999999</v>
       </c>
       <c r="G4" t="n">
-        <v>1504.696490384615</v>
+        <v>1470.483296875</v>
       </c>
       <c r="H4" t="n">
-        <v>227.8099718603294</v>
+        <v>244.24921102239</v>
       </c>
       <c r="I4" t="n">
-        <v>1504.461249999999</v>
+        <v>1479.035125000001</v>
       </c>
       <c r="J4" t="n">
         <v>1096.0705</v>
@@ -5452,103 +6002,103 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>177.7692307692308</v>
+        <v>225.125</v>
       </c>
       <c r="R4" t="n">
-        <v>145.6492783631704</v>
+        <v>175.7209435440181</v>
       </c>
       <c r="S4" t="n">
-        <v>161.5</v>
+        <v>182.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U4" t="n">
         <v>635</v>
       </c>
       <c r="V4" t="n">
-        <v>48.67948717948718</v>
+        <v>90.5625</v>
       </c>
       <c r="W4" t="n">
-        <v>38.4189122765445</v>
+        <v>39.98994665329442</v>
       </c>
       <c r="X4" t="n">
-        <v>50.5</v>
+        <v>87</v>
       </c>
       <c r="Y4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>177</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.5</v>
+        <v>42.3125</v>
       </c>
       <c r="AB4" t="n">
-        <v>26.87042017757595</v>
+        <v>49.83802932166025</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>27</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="n">
         <v>217</v>
       </c>
       <c r="AF4" t="n">
-        <v>724.8461538461538</v>
+        <v>1220.5625</v>
       </c>
       <c r="AG4" t="n">
-        <v>457.6268279792101</v>
+        <v>482.0179759787665</v>
       </c>
       <c r="AH4" t="n">
-        <v>731.5</v>
+        <v>1124</v>
       </c>
       <c r="AI4" t="n">
-        <v>106</v>
+        <v>397</v>
       </c>
       <c r="AJ4" t="n">
         <v>2303</v>
       </c>
       <c r="AK4" t="n">
-        <v>52.19230769230769</v>
+        <v>60.75</v>
       </c>
       <c r="AL4" t="n">
-        <v>8.19258088872985</v>
+        <v>8.35463942968217</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>61.5</v>
       </c>
       <c r="AN4" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AO4" t="n">
         <v>80</v>
       </c>
       <c r="AP4" t="n">
-        <v>63.2051282051282</v>
+        <v>75.625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>31.48504447047877</v>
+        <v>27.82774394975873</v>
       </c>
       <c r="AR4" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="AS4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.002656410256410256</v>
+        <v>0.008425</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.005484987533722228</v>
+        <v>0.01012610487798739</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0008</v>
+        <v>0.0052</v>
       </c>
       <c r="AX4" t="n">
         <v>0.0002</v>
@@ -5557,31 +6107,31 @@
         <v>0.0426</v>
       </c>
       <c r="AZ4" t="n">
-        <v>24.02564102564103</v>
+        <v>35.9375</v>
       </c>
       <c r="BA4" t="n">
-        <v>10.223444356909</v>
+        <v>10.95121758831714</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="BC4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD4" t="n">
         <v>55</v>
       </c>
       <c r="BE4" t="n">
-        <v>13.73076923076923</v>
+        <v>18.625</v>
       </c>
       <c r="BF4" t="n">
-        <v>10.6839764435978</v>
+        <v>12.80559773432437</v>
       </c>
       <c r="BG4" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="BH4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI4" t="n">
         <v>43</v>
@@ -5602,61 +6152,61 @@
         <v>40</v>
       </c>
       <c r="BO4" t="n">
-        <v>72.82051282051282</v>
+        <v>70.6875</v>
       </c>
       <c r="BP4" t="n">
-        <v>51.61917080444818</v>
+        <v>27.76020833255158</v>
       </c>
       <c r="BQ4" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BS4" t="n">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="BT4" t="n">
-        <v>220.9871794871795</v>
+        <v>105.4375</v>
       </c>
       <c r="BU4" t="n">
-        <v>320.84800356546</v>
+        <v>59.43396195218129</v>
       </c>
       <c r="BV4" t="n">
-        <v>97.5</v>
+        <v>101</v>
       </c>
       <c r="BW4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="BX4" t="n">
-        <v>1000</v>
+        <v>285</v>
       </c>
       <c r="BY4" t="n">
-        <v>99517.71794871795</v>
+        <v>266914.6875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>167818.8532736273</v>
+        <v>311414.8753203072</v>
       </c>
       <c r="CA4" t="n">
-        <v>60968</v>
+        <v>173804.5</v>
       </c>
       <c r="CB4" t="n">
-        <v>6268</v>
+        <v>15457</v>
       </c>
       <c r="CC4" t="n">
         <v>1358000</v>
       </c>
       <c r="CD4" t="n">
-        <v>38192.15384615384</v>
+        <v>106497.625</v>
       </c>
       <c r="CE4" t="n">
-        <v>55575.31493903949</v>
+        <v>84365.0670810101</v>
       </c>
       <c r="CF4" t="n">
-        <v>13790</v>
+        <v>86833</v>
       </c>
       <c r="CG4" t="n">
-        <v>1034</v>
+        <v>1972</v>
       </c>
       <c r="CH4" t="n">
         <v>277524</v>
@@ -5682,13 +6232,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>866.3203886640759</v>
+        <v>866.1620332173017</v>
       </c>
       <c r="C5" t="n">
-        <v>16.28963286918215</v>
+        <v>16.53941744411646</v>
       </c>
       <c r="D5" t="n">
-        <v>870.9803768</v>
+        <v>870.92926625</v>
       </c>
       <c r="E5" t="n">
         <v>814.1607471999999</v>
@@ -5697,10 +6247,10 @@
         <v>887.6286578</v>
       </c>
       <c r="G5" t="n">
-        <v>1556.328498704663</v>
+        <v>1554.115214285715</v>
       </c>
       <c r="H5" t="n">
-        <v>197.5377657819501</v>
+        <v>200.4492773314551</v>
       </c>
       <c r="I5" t="n">
         <v>1601.447499999998</v>
@@ -5727,25 +6277,25 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>108.0898100172712</v>
+        <v>115.6142857142857</v>
       </c>
       <c r="R5" t="n">
-        <v>74.73141446372678</v>
+        <v>83.59970933751679</v>
       </c>
       <c r="S5" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="T5" t="n">
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>412</v>
+        <v>521</v>
       </c>
       <c r="V5" t="n">
-        <v>20.62694300518135</v>
+        <v>22.56349206349206</v>
       </c>
       <c r="W5" t="n">
-        <v>15.4792762279678</v>
+        <v>18.12748356176694</v>
       </c>
       <c r="X5" t="n">
         <v>16</v>
@@ -5754,43 +6304,43 @@
         <v>2</v>
       </c>
       <c r="Z5" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.376511226252159</v>
+        <v>3.922222222222222</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.801976734476661</v>
+        <v>3.95748247625973</v>
       </c>
       <c r="AC5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="AF5" t="n">
-        <v>380.2279792746114</v>
+        <v>403.0650793650794</v>
       </c>
       <c r="AG5" t="n">
-        <v>170.0230287004385</v>
+        <v>206.5076259452012</v>
       </c>
       <c r="AH5" t="n">
-        <v>350</v>
+        <v>356.5</v>
       </c>
       <c r="AI5" t="n">
         <v>91</v>
       </c>
       <c r="AJ5" t="n">
-        <v>988</v>
+        <v>1413</v>
       </c>
       <c r="AK5" t="n">
-        <v>46.93436960276338</v>
+        <v>47.29365079365079</v>
       </c>
       <c r="AL5" t="n">
-        <v>3.783845201214776</v>
+        <v>4.229631750250359</v>
       </c>
       <c r="AM5" t="n">
         <v>46</v>
@@ -5799,28 +6349,28 @@
         <v>40</v>
       </c>
       <c r="AO5" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AP5" t="n">
-        <v>51.18652849740933</v>
+        <v>52.51746031746032</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24.1053001007065</v>
+        <v>24.93161738052856</v>
       </c>
       <c r="AR5" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>7</v>
       </c>
       <c r="AT5" t="n">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0007198618307426598</v>
+        <v>0.0007657142857142857</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0005946148021056552</v>
+        <v>0.0007151099491562396</v>
       </c>
       <c r="AW5" t="n">
         <v>0.0005999999999999999</v>
@@ -5829,13 +6379,13 @@
         <v>0.0002</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0042</v>
+        <v>0.0054</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19.15544041450777</v>
+        <v>19.34444444444444</v>
       </c>
       <c r="BA5" t="n">
-        <v>5.151008629468134</v>
+        <v>5.440567098988297</v>
       </c>
       <c r="BB5" t="n">
         <v>19</v>
@@ -5844,13 +6394,13 @@
         <v>10</v>
       </c>
       <c r="BD5" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BE5" t="n">
-        <v>7.338514680483592</v>
+        <v>7.953968253968254</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.420972206027361</v>
+        <v>6.149135562881313</v>
       </c>
       <c r="BG5" t="n">
         <v>6</v>
@@ -5859,7 +6409,7 @@
         <v>1</v>
       </c>
       <c r="BI5" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="BJ5" t="n">
         <v>40</v>
@@ -5877,28 +6427,28 @@
         <v>40</v>
       </c>
       <c r="BO5" t="n">
-        <v>43.77892918825561</v>
+        <v>47.09682539682539</v>
       </c>
       <c r="BP5" t="n">
-        <v>25.63652316439663</v>
+        <v>31.20354973617563</v>
       </c>
       <c r="BQ5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BR5" t="n">
         <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>121</v>
+        <v>250</v>
       </c>
       <c r="BT5" t="n">
-        <v>88.73056994818653</v>
+        <v>88.76984126984127</v>
       </c>
       <c r="BU5" t="n">
-        <v>57.55349503292609</v>
+        <v>56.5796655032922</v>
       </c>
       <c r="BV5" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BW5" t="n">
         <v>7</v>
@@ -5907,34 +6457,34 @@
         <v>333</v>
       </c>
       <c r="BY5" t="n">
-        <v>23931.32469775475</v>
+        <v>27324.27619047619</v>
       </c>
       <c r="BZ5" t="n">
-        <v>17493.91526530336</v>
+        <v>24670.51571087015</v>
       </c>
       <c r="CA5" t="n">
-        <v>18102</v>
+        <v>19155.5</v>
       </c>
       <c r="CB5" t="n">
-        <v>6289</v>
+        <v>6268</v>
       </c>
       <c r="CC5" t="n">
-        <v>100885</v>
+        <v>206616</v>
       </c>
       <c r="CD5" t="n">
-        <v>5145.024113989637</v>
+        <v>6721.471368253969</v>
       </c>
       <c r="CE5" t="n">
-        <v>6003.956102924029</v>
+        <v>10626.67332729328</v>
       </c>
       <c r="CF5" t="n">
-        <v>2880</v>
+        <v>2974.5</v>
       </c>
       <c r="CG5" t="n">
         <v>723.072</v>
       </c>
       <c r="CH5" t="n">
-        <v>38485</v>
+        <v>105730</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
@@ -5950,6 +6500,281 @@
       </c>
       <c r="CM5" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>856.9757175818181</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.9798188073529</v>
+      </c>
+      <c r="D6" t="n">
+        <v>852.7371672</v>
+      </c>
+      <c r="E6" t="n">
+        <v>830.3547096999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>879.907251</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1441.837204545454</v>
+      </c>
+      <c r="H6" t="n">
+        <v>180.2925191963329</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1374.447249999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1146.92275</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1744.0435</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6.909090909090909</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3.986340312982459</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.454545454545455</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.6875516509523286</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>293.6363636363636</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>88.848492083178</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>280</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>168</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>461</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>43.54545454545455</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.967924610529395</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>43</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>24.63636363636364</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>15.60303000876898</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>54</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0006181818181818182</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.0004854239009735343</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>18.45454545454545</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>5.317210478505366</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>28</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>20.54545454545455</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>15.44256219908883</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>14</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>50</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>12153.63636363636</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>3720.932712982788</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>11977</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>6655</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>19843</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>1769.818181818182</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>503.5356627254554</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>1597</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>1156</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>2648</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6621,34 +7446,34 @@
         <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>1229.605477974194</v>
+        <v>1227.325192885714</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00746233609061</v>
+        <v>22.2193088718388</v>
       </c>
       <c r="D4" t="n">
-        <v>1234.5986572</v>
+        <v>1237.816033</v>
       </c>
       <c r="E4" t="n">
         <v>1185.517406</v>
       </c>
       <c r="F4" t="n">
-        <v>1244.2170595</v>
+        <v>1243.5303575</v>
       </c>
       <c r="G4" t="n">
-        <v>1468.846072580645</v>
+        <v>1421.779535714285</v>
       </c>
       <c r="H4" t="n">
-        <v>302.2857787506732</v>
+        <v>434.3036807238933</v>
       </c>
       <c r="I4" t="n">
-        <v>1590.438249999999</v>
+        <v>1633.426749999999</v>
       </c>
       <c r="J4" t="n">
         <v>607.9937499999996</v>
       </c>
       <c r="K4" t="n">
-        <v>1738.801000000001</v>
+        <v>1734.08275</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -6666,103 +7491,103 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>123.3548387096774</v>
+        <v>152.4285714285714</v>
       </c>
       <c r="R4" t="n">
-        <v>77.48055600690915</v>
+        <v>71.26676912104533</v>
       </c>
       <c r="S4" t="n">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
       </c>
       <c r="U4" t="n">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="V4" t="n">
-        <v>27.35483870967742</v>
+        <v>58.85714285714285</v>
       </c>
       <c r="W4" t="n">
-        <v>25.16021778800384</v>
+        <v>29.15720935108257</v>
       </c>
       <c r="X4" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y4" t="n">
         <v>20</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3</v>
       </c>
       <c r="Z4" t="n">
         <v>96</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.612903225806452</v>
+        <v>13.57142857142857</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.601400959164343</v>
+        <v>10.11364001167306</v>
       </c>
       <c r="AC4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
       </c>
       <c r="AF4" t="n">
-        <v>480.9032258064516</v>
+        <v>703.5714285714286</v>
       </c>
       <c r="AG4" t="n">
-        <v>230.7514326194184</v>
+        <v>277.8925794516394</v>
       </c>
       <c r="AH4" t="n">
-        <v>455</v>
+        <v>624</v>
       </c>
       <c r="AI4" t="n">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="AJ4" t="n">
         <v>1118</v>
       </c>
       <c r="AK4" t="n">
-        <v>48.09677419354838</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="n">
-        <v>5.551905611047299</v>
+        <v>5.715476066494083</v>
       </c>
       <c r="AM4" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="AN4" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AO4" t="n">
         <v>61</v>
       </c>
       <c r="AP4" t="n">
-        <v>50.90322580645162</v>
+        <v>82</v>
       </c>
       <c r="AQ4" t="n">
-        <v>31.21362398986451</v>
+        <v>19.16594201528673</v>
       </c>
       <c r="AR4" t="n">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="AS4" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="AT4" t="n">
         <v>105</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.0006516129032258064</v>
+        <v>0.001285714285714286</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.001013203160852398</v>
+        <v>0.002039140808795518</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0004</v>
+        <v>0.0002</v>
       </c>
       <c r="AX4" t="n">
         <v>0.0002</v>
@@ -6771,31 +7596,31 @@
         <v>0.0056</v>
       </c>
       <c r="AZ4" t="n">
-        <v>16.16129032258064</v>
+        <v>18.57142857142857</v>
       </c>
       <c r="BA4" t="n">
-        <v>6.865841896390898</v>
+        <v>10.93704931044236</v>
       </c>
       <c r="BB4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD4" t="n">
         <v>38</v>
       </c>
       <c r="BE4" t="n">
-        <v>8.935483870967742</v>
+        <v>18.14285714285714</v>
       </c>
       <c r="BF4" t="n">
-        <v>8.115563171548716</v>
+        <v>9.026416258748013</v>
       </c>
       <c r="BG4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="BH4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI4" t="n">
         <v>28</v>
@@ -6816,61 +7641,61 @@
         <v>40</v>
       </c>
       <c r="BO4" t="n">
-        <v>45.41935483870968</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="BP4" t="n">
-        <v>29.4117597722956</v>
+        <v>20.41124806617782</v>
       </c>
       <c r="BQ4" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="BR4" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="BS4" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="BT4" t="n">
-        <v>82.93548387096774</v>
+        <v>140</v>
       </c>
       <c r="BU4" t="n">
-        <v>60.53810672288486</v>
+        <v>66.02777193474475</v>
       </c>
       <c r="BV4" t="n">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="BW4" t="n">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="BX4" t="n">
         <v>285</v>
       </c>
       <c r="BY4" t="n">
-        <v>38259.70967741936</v>
+        <v>88859.57142857143</v>
       </c>
       <c r="BZ4" t="n">
-        <v>41486.39505765197</v>
+        <v>62995.67291980495</v>
       </c>
       <c r="CA4" t="n">
-        <v>29414</v>
+        <v>61107</v>
       </c>
       <c r="CB4" t="n">
-        <v>6249</v>
+        <v>16857</v>
       </c>
       <c r="CC4" t="n">
         <v>192251</v>
       </c>
       <c r="CD4" t="n">
-        <v>12374.73680645161</v>
+        <v>40036</v>
       </c>
       <c r="CE4" t="n">
-        <v>23749.01007066743</v>
+        <v>40179.85766940114</v>
       </c>
       <c r="CF4" t="n">
-        <v>4617</v>
+        <v>20904</v>
       </c>
       <c r="CG4" t="n">
-        <v>845.841</v>
+        <v>2853</v>
       </c>
       <c r="CH4" t="n">
         <v>110056</v>
@@ -6896,31 +7721,31 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>1238.872509985714</v>
+        <v>1233.439700178947</v>
       </c>
       <c r="C5" t="n">
-        <v>4.180270013904773</v>
+        <v>11.18510927774392</v>
       </c>
       <c r="D5" t="n">
-        <v>1238.7619384</v>
+        <v>1237.64381425</v>
       </c>
       <c r="E5" t="n">
-        <v>1231.7827412</v>
+        <v>1195.167558</v>
       </c>
       <c r="F5" t="n">
         <v>1245.3917007</v>
       </c>
       <c r="G5" t="n">
-        <v>1654.808660714285</v>
+        <v>1546.028756578947</v>
       </c>
       <c r="H5" t="n">
-        <v>67.31669573735974</v>
+        <v>227.2492772104025</v>
       </c>
       <c r="I5" t="n">
-        <v>1658.328625000001</v>
+        <v>1639.717749999999</v>
       </c>
       <c r="J5" t="n">
-        <v>1524.382749999999</v>
+        <v>766.3172500000001</v>
       </c>
       <c r="K5" t="n">
         <v>1750.334499999999</v>
@@ -6941,40 +7766,40 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>81.85714285714286</v>
+        <v>102.7105263157895</v>
       </c>
       <c r="R5" t="n">
-        <v>56.48942330255235</v>
+        <v>72.24279928383281</v>
       </c>
       <c r="S5" t="n">
-        <v>77.5</v>
+        <v>85.5</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
       </c>
       <c r="U5" t="n">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="V5" t="n">
-        <v>16.92857142857143</v>
+        <v>17.71052631578947</v>
       </c>
       <c r="W5" t="n">
-        <v>7.205385653633148</v>
+        <v>12.3088803248159</v>
       </c>
       <c r="X5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z5" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.357142857142857</v>
+        <v>2.947368421052631</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.15072838853303</v>
+        <v>1.985724300030741</v>
       </c>
       <c r="AC5" t="n">
         <v>2</v>
@@ -6983,58 +7808,58 @@
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AF5" t="n">
-        <v>335.1428571428572</v>
+        <v>386.1842105263158</v>
       </c>
       <c r="AG5" t="n">
-        <v>113.2049585369945</v>
+        <v>156.8347133498258</v>
       </c>
       <c r="AH5" t="n">
-        <v>331.5</v>
+        <v>366.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AJ5" t="n">
-        <v>508</v>
+        <v>696</v>
       </c>
       <c r="AK5" t="n">
-        <v>46.28571428571428</v>
+        <v>46.1578947368421</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.637473261253043</v>
+        <v>3.000237069817431</v>
       </c>
       <c r="AM5" t="n">
         <v>46</v>
       </c>
       <c r="AN5" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AO5" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AP5" t="n">
-        <v>49.78571428571428</v>
+        <v>44.76315789473684</v>
       </c>
       <c r="AQ5" t="n">
-        <v>11.70258729728386</v>
+        <v>23.60764215538175</v>
       </c>
       <c r="AR5" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AT5" t="n">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0002285714285714286</v>
+        <v>0.0003789473684210526</v>
       </c>
       <c r="AV5" t="n">
-        <v>7.262730392025629e-05</v>
+        <v>0.0002742635295505698</v>
       </c>
       <c r="AW5" t="n">
         <v>0.0002</v>
@@ -7043,13 +7868,13 @@
         <v>0.0002</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0004</v>
+        <v>0.0012</v>
       </c>
       <c r="AZ5" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="BA5" t="n">
-        <v>2.139374459257443</v>
+        <v>4.770404255066519</v>
       </c>
       <c r="BB5" t="n">
         <v>11</v>
@@ -7058,22 +7883,22 @@
         <v>10</v>
       </c>
       <c r="BD5" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="BE5" t="n">
-        <v>5.571428571428571</v>
+        <v>6</v>
       </c>
       <c r="BF5" t="n">
-        <v>3.735778895497424</v>
+        <v>4.948382209014021</v>
       </c>
       <c r="BG5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BH5" t="n">
         <v>1</v>
       </c>
       <c r="BI5" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="BJ5" t="n">
         <v>40</v>
@@ -7091,64 +7916,64 @@
         <v>40</v>
       </c>
       <c r="BO5" t="n">
-        <v>44.71428571428572</v>
+        <v>40.36842105263158</v>
       </c>
       <c r="BP5" t="n">
-        <v>11.88035593502388</v>
+        <v>23.00930605227181</v>
       </c>
       <c r="BQ5" t="n">
-        <v>45.5</v>
+        <v>39.5</v>
       </c>
       <c r="BR5" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="BS5" t="n">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="BT5" t="n">
-        <v>78.92857142857143</v>
+        <v>70.94736842105263</v>
       </c>
       <c r="BU5" t="n">
-        <v>34.98893074566976</v>
+        <v>44.01225097777739</v>
       </c>
       <c r="BV5" t="n">
-        <v>76</v>
+        <v>65.5</v>
       </c>
       <c r="BW5" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="BX5" t="n">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="BY5" t="n">
-        <v>18452.21428571429</v>
+        <v>21641.18421052632</v>
       </c>
       <c r="BZ5" t="n">
-        <v>7472.254877247527</v>
+        <v>12329.24397817066</v>
       </c>
       <c r="CA5" t="n">
         <v>17034.5</v>
       </c>
       <c r="CB5" t="n">
-        <v>6558</v>
+        <v>6249</v>
       </c>
       <c r="CC5" t="n">
-        <v>31046</v>
+        <v>50676</v>
       </c>
       <c r="CD5" t="n">
-        <v>3048.031142857143</v>
+        <v>3843.086236842105</v>
       </c>
       <c r="CE5" t="n">
-        <v>1370.098290705331</v>
+        <v>3093.861585168802</v>
       </c>
       <c r="CF5" t="n">
-        <v>2864.5</v>
+        <v>2741.5</v>
       </c>
       <c r="CG5" t="n">
-        <v>985.436</v>
+        <v>845.841</v>
       </c>
       <c r="CH5" t="n">
-        <v>5757</v>
+        <v>13143</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
@@ -7835,13 +8660,13 @@
         <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>1926.6239005</v>
+        <v>1929.078986986792</v>
       </c>
       <c r="C4" t="n">
-        <v>20.88549124899566</v>
+        <v>18.11932065920734</v>
       </c>
       <c r="D4" t="n">
-        <v>1933.85743515</v>
+        <v>1933.87422</v>
       </c>
       <c r="E4" t="n">
         <v>1845.3333417</v>
@@ -7850,19 +8675,19 @@
         <v>1946.6685893</v>
       </c>
       <c r="G4" t="n">
-        <v>2231.98099609375</v>
+        <v>2274.653740566038</v>
       </c>
       <c r="H4" t="n">
-        <v>345.6792104697568</v>
+        <v>298.2097699158464</v>
       </c>
       <c r="I4" t="n">
-        <v>2360.561499999999</v>
+        <v>2361.609999999999</v>
       </c>
       <c r="J4" t="n">
         <v>859.1094999999987</v>
       </c>
       <c r="K4" t="n">
-        <v>2569.213</v>
+        <v>2562.922</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -7880,13 +8705,13 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.359375</v>
+        <v>162.5094339622642</v>
       </c>
       <c r="R4" t="n">
-        <v>161.483756740252</v>
+        <v>181.3986920741489</v>
       </c>
       <c r="S4" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -7895,13 +8720,13 @@
         <v>735</v>
       </c>
       <c r="V4" t="n">
-        <v>60.0078125</v>
+        <v>80.49056603773585</v>
       </c>
       <c r="W4" t="n">
-        <v>41.31604635629779</v>
+        <v>48.35709423791899</v>
       </c>
       <c r="X4" t="n">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="Y4" t="n">
         <v>3</v>
@@ -7910,13 +8735,13 @@
         <v>171</v>
       </c>
       <c r="AA4" t="n">
-        <v>23.484375</v>
+        <v>41.60377358490566</v>
       </c>
       <c r="AB4" t="n">
-        <v>34.16195433542625</v>
+        <v>46.514819649491</v>
       </c>
       <c r="AC4" t="n">
-        <v>12.5</v>
+        <v>35</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -7925,13 +8750,13 @@
         <v>229</v>
       </c>
       <c r="AF4" t="n">
-        <v>721.953125</v>
+        <v>928.9622641509434</v>
       </c>
       <c r="AG4" t="n">
-        <v>456.8871888084016</v>
+        <v>568.719579482791</v>
       </c>
       <c r="AH4" t="n">
-        <v>682</v>
+        <v>950</v>
       </c>
       <c r="AI4" t="n">
         <v>94</v>
@@ -7940,43 +8765,43 @@
         <v>2732</v>
       </c>
       <c r="AK4" t="n">
-        <v>57.296875</v>
+        <v>61.33962264150944</v>
       </c>
       <c r="AL4" t="n">
-        <v>10.52882012143841</v>
+        <v>11.76360651825794</v>
       </c>
       <c r="AM4" t="n">
-        <v>58.5</v>
+        <v>65</v>
       </c>
       <c r="AN4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AO4" t="n">
         <v>82</v>
       </c>
       <c r="AP4" t="n">
-        <v>79.21875</v>
+        <v>81.20754716981132</v>
       </c>
       <c r="AQ4" t="n">
-        <v>33.24567048954213</v>
+        <v>33.33071953951445</v>
       </c>
       <c r="AR4" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AS4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT4" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.005153125</v>
+        <v>0.0054</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.006707029307076588</v>
+        <v>0.007652350066382325</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0017</v>
+        <v>0.0016</v>
       </c>
       <c r="AX4" t="n">
         <v>0.0002</v>
@@ -7985,13 +8810,13 @@
         <v>0.0372</v>
       </c>
       <c r="AZ4" t="n">
-        <v>29.1015625</v>
+        <v>29.11320754716981</v>
       </c>
       <c r="BA4" t="n">
-        <v>12.443788472773</v>
+        <v>12.30487767163039</v>
       </c>
       <c r="BB4" t="n">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="BC4" t="n">
         <v>10</v>
@@ -8000,10 +8825,10 @@
         <v>54</v>
       </c>
       <c r="BE4" t="n">
-        <v>14.0390625</v>
+        <v>16.58490566037736</v>
       </c>
       <c r="BF4" t="n">
-        <v>12.72878957927828</v>
+        <v>16.16196146971713</v>
       </c>
       <c r="BG4" t="n">
         <v>10</v>
@@ -8030,28 +8855,28 @@
         <v>40</v>
       </c>
       <c r="BO4" t="n">
-        <v>86.6328125</v>
+        <v>93.41509433962264</v>
       </c>
       <c r="BP4" t="n">
-        <v>52.23446098948666</v>
+        <v>61.56467330010467</v>
       </c>
       <c r="BQ4" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BS4" t="n">
         <v>333</v>
       </c>
       <c r="BT4" t="n">
-        <v>181.6484375</v>
+        <v>262.6981132075472</v>
       </c>
       <c r="BU4" t="n">
-        <v>228.0524387080501</v>
+        <v>320.0732839706496</v>
       </c>
       <c r="BV4" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="BW4" t="n">
         <v>10</v>
@@ -8060,28 +8885,28 @@
         <v>1000</v>
       </c>
       <c r="BY4" t="n">
-        <v>149394.484375</v>
+        <v>262309.2075471698</v>
       </c>
       <c r="BZ4" t="n">
-        <v>213191.3334245886</v>
+        <v>290304.8275067194</v>
       </c>
       <c r="CA4" t="n">
-        <v>80684.5</v>
+        <v>223855</v>
       </c>
       <c r="CB4" t="n">
-        <v>6634</v>
+        <v>6975</v>
       </c>
       <c r="CC4" t="n">
         <v>1432000</v>
       </c>
       <c r="CD4" t="n">
-        <v>83911.579125</v>
+        <v>139614.6485849057</v>
       </c>
       <c r="CE4" t="n">
-        <v>109375.3397624334</v>
+        <v>136545.567236577</v>
       </c>
       <c r="CF4" t="n">
-        <v>28543</v>
+        <v>99881</v>
       </c>
       <c r="CG4" t="n">
         <v>934.375</v>
@@ -8110,31 +8935,31 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>1930.798128973255</v>
+        <v>1930.506941904074</v>
       </c>
       <c r="C5" t="n">
-        <v>11.26444248282577</v>
+        <v>12.12877258313991</v>
       </c>
       <c r="D5" t="n">
-        <v>1932.947208</v>
+        <v>1932.97944925</v>
       </c>
       <c r="E5" t="n">
-        <v>1890.6986157</v>
+        <v>1861.5502032</v>
       </c>
       <c r="F5" t="n">
         <v>1946.9676425</v>
       </c>
       <c r="G5" t="n">
-        <v>2305.030490843124</v>
+        <v>2299.944835413929</v>
       </c>
       <c r="H5" t="n">
-        <v>184.051715603289</v>
+        <v>198.8287653836825</v>
       </c>
       <c r="I5" t="n">
         <v>2343.785499999998</v>
       </c>
       <c r="J5" t="n">
-        <v>1633.426749999999</v>
+        <v>1128.049749999998</v>
       </c>
       <c r="K5" t="n">
         <v>2596.473999999998</v>
@@ -8155,40 +8980,40 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>87.22252937111264</v>
+        <v>90.91984231274638</v>
       </c>
       <c r="R5" t="n">
-        <v>74.8471302616026</v>
+        <v>81.49948359110098</v>
       </c>
       <c r="S5" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>499</v>
+        <v>633</v>
       </c>
       <c r="V5" t="n">
-        <v>24.15134761575674</v>
+        <v>25.20499342969777</v>
       </c>
       <c r="W5" t="n">
-        <v>18.19629130346777</v>
+        <v>19.33513631751241</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>2</v>
       </c>
       <c r="Z5" t="n">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.843123704215619</v>
+        <v>4.180026281208936</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.940374152960972</v>
+        <v>4.571923060669507</v>
       </c>
       <c r="AC5" t="n">
         <v>2</v>
@@ -8197,28 +9022,28 @@
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>359.0739460953697</v>
+        <v>369.7470433639947</v>
       </c>
       <c r="AG5" t="n">
-        <v>205.8512184250727</v>
+        <v>215.1929452595448</v>
       </c>
       <c r="AH5" t="n">
-        <v>306</v>
+        <v>311.5</v>
       </c>
       <c r="AI5" t="n">
         <v>59</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1173</v>
+        <v>1348</v>
       </c>
       <c r="AK5" t="n">
-        <v>48.62335867311679</v>
+        <v>48.90998685939553</v>
       </c>
       <c r="AL5" t="n">
-        <v>4.694227825772304</v>
+        <v>5.107694122627183</v>
       </c>
       <c r="AM5" t="n">
         <v>48</v>
@@ -8227,13 +9052,13 @@
         <v>41</v>
       </c>
       <c r="AO5" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="AP5" t="n">
-        <v>67.99170697995854</v>
+        <v>68.47568988173455</v>
       </c>
       <c r="AQ5" t="n">
-        <v>31.83980368244261</v>
+        <v>31.97465301743796</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
@@ -8245,10 +9070,10 @@
         <v>182</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.001583828610919143</v>
+        <v>0.001751116951379763</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.001468126455761746</v>
+        <v>0.002083232439558114</v>
       </c>
       <c r="AW5" t="n">
         <v>0.0012</v>
@@ -8257,28 +9082,28 @@
         <v>0.0002</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0148</v>
+        <v>0.026</v>
       </c>
       <c r="AZ5" t="n">
-        <v>24.81202487906013</v>
+        <v>25.02299605781866</v>
       </c>
       <c r="BA5" t="n">
-        <v>6.027075308007903</v>
+        <v>6.568617995098625</v>
       </c>
       <c r="BB5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC5" t="n">
         <v>10</v>
       </c>
       <c r="BD5" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="BE5" t="n">
-        <v>7.286800276434001</v>
+        <v>7.530880420499343</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.569749969263486</v>
+        <v>5.903845381009249</v>
       </c>
       <c r="BG5" t="n">
         <v>6</v>
@@ -8287,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="BI5" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="BJ5" t="n">
         <v>40</v>
@@ -8305,64 +9130,64 @@
         <v>40</v>
       </c>
       <c r="BO5" t="n">
-        <v>59.67242570836213</v>
+        <v>60.76478318002628</v>
       </c>
       <c r="BP5" t="n">
-        <v>32.43155074839767</v>
+        <v>33.4437008392327</v>
       </c>
       <c r="BQ5" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BR5" t="n">
         <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="BT5" t="n">
-        <v>121.3026952315135</v>
+        <v>121.4540078843627</v>
       </c>
       <c r="BU5" t="n">
-        <v>73.58628613575723</v>
+        <v>74.81843585345879</v>
       </c>
       <c r="BV5" t="n">
-        <v>110</v>
+        <v>109.5</v>
       </c>
       <c r="BW5" t="n">
         <v>5</v>
       </c>
       <c r="BX5" t="n">
-        <v>500</v>
+        <v>666</v>
       </c>
       <c r="BY5" t="n">
-        <v>26978.13821700069</v>
+        <v>29078.49671484888</v>
       </c>
       <c r="BZ5" t="n">
-        <v>24641.38665322803</v>
+        <v>28599.96838817125</v>
       </c>
       <c r="CA5" t="n">
-        <v>17934</v>
+        <v>18503</v>
       </c>
       <c r="CB5" t="n">
         <v>6277</v>
       </c>
       <c r="CC5" t="n">
-        <v>165158</v>
+        <v>216489</v>
       </c>
       <c r="CD5" t="n">
-        <v>7511.021292328956</v>
+        <v>9336.106151773982</v>
       </c>
       <c r="CE5" t="n">
-        <v>11406.36073858423</v>
+        <v>19103.06448878614</v>
       </c>
       <c r="CF5" t="n">
-        <v>3225</v>
+        <v>3346.5</v>
       </c>
       <c r="CG5" t="n">
         <v>763.408</v>
       </c>
       <c r="CH5" t="n">
-        <v>94529</v>
+        <v>241161</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
@@ -9049,31 +9874,31 @@
         <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>2292.024980229412</v>
+        <v>2306.411808314286</v>
       </c>
       <c r="C4" t="n">
-        <v>35.1599390688796</v>
+        <v>18.7839864959455</v>
       </c>
       <c r="D4" t="n">
-        <v>2307.4286095</v>
+        <v>2313.0376825</v>
       </c>
       <c r="E4" t="n">
-        <v>2189.5210712</v>
+        <v>2267.052517</v>
       </c>
       <c r="F4" t="n">
-        <v>2328.4291077</v>
+        <v>2328.4108217</v>
       </c>
       <c r="G4" t="n">
-        <v>2000.504544117647</v>
+        <v>2272.737142857143</v>
       </c>
       <c r="H4" t="n">
-        <v>651.9825341615309</v>
+        <v>336.1604326291296</v>
       </c>
       <c r="I4" t="n">
-        <v>2286.118</v>
+        <v>2392.0165</v>
       </c>
       <c r="J4" t="n">
-        <v>328.0442500000008</v>
+        <v>1556.361999999999</v>
       </c>
       <c r="K4" t="n">
         <v>2666.7235</v>
@@ -9094,13 +9919,13 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>144.8823529411765</v>
+        <v>148.1904761904762</v>
       </c>
       <c r="R4" t="n">
-        <v>118.048574249556</v>
+        <v>132.27570413633</v>
       </c>
       <c r="S4" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -9109,13 +9934,13 @@
         <v>493</v>
       </c>
       <c r="V4" t="n">
-        <v>50.01960784313726</v>
+        <v>68</v>
       </c>
       <c r="W4" t="n">
-        <v>43.96611886263258</v>
+        <v>57.67668506424411</v>
       </c>
       <c r="X4" t="n">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="Y4" t="n">
         <v>4</v>
@@ -9124,13 +9949,13 @@
         <v>159</v>
       </c>
       <c r="AA4" t="n">
-        <v>18.96078431372549</v>
+        <v>34.47619047619047</v>
       </c>
       <c r="AB4" t="n">
-        <v>31.22432435414014</v>
+        <v>43.9620507342629</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -9139,13 +9964,13 @@
         <v>149</v>
       </c>
       <c r="AF4" t="n">
-        <v>631.5686274509804</v>
+        <v>816.952380952381</v>
       </c>
       <c r="AG4" t="n">
-        <v>436.1099978171544</v>
+        <v>575.5441317736179</v>
       </c>
       <c r="AH4" t="n">
-        <v>512</v>
+        <v>929</v>
       </c>
       <c r="AI4" t="n">
         <v>135</v>
@@ -9154,13 +9979,13 @@
         <v>1793</v>
       </c>
       <c r="AK4" t="n">
-        <v>53.84313725490196</v>
+        <v>56.57142857142857</v>
       </c>
       <c r="AL4" t="n">
-        <v>10.23596121332942</v>
+        <v>12.78503589580972</v>
       </c>
       <c r="AM4" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AN4" t="n">
         <v>41</v>
@@ -9169,28 +9994,28 @@
         <v>77</v>
       </c>
       <c r="AP4" t="n">
-        <v>72.21568627450981</v>
+        <v>70.14285714285714</v>
       </c>
       <c r="AQ4" t="n">
-        <v>37.56877092772145</v>
+        <v>37.22940466121599</v>
       </c>
       <c r="AR4" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AS4" t="n">
         <v>12</v>
       </c>
       <c r="AT4" t="n">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.002607843137254902</v>
+        <v>0.004647619047619047</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.005537502799538973</v>
+        <v>0.007999726185790302</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0004</v>
+        <v>0.001</v>
       </c>
       <c r="AX4" t="n">
         <v>0.0002</v>
@@ -9199,13 +10024,13 @@
         <v>0.0278</v>
       </c>
       <c r="AZ4" t="n">
-        <v>20.98039215686275</v>
+        <v>25.61904761904762</v>
       </c>
       <c r="BA4" t="n">
-        <v>12.02745225902549</v>
+        <v>13.52950919463153</v>
       </c>
       <c r="BB4" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BC4" t="n">
         <v>10</v>
@@ -9214,13 +10039,13 @@
         <v>51</v>
       </c>
       <c r="BE4" t="n">
-        <v>11.98039215686275</v>
+        <v>15.38095238095238</v>
       </c>
       <c r="BF4" t="n">
-        <v>10.16757630131868</v>
+        <v>13.95520043022023</v>
       </c>
       <c r="BG4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BH4" t="n">
         <v>1</v>
@@ -9244,13 +10069,13 @@
         <v>40</v>
       </c>
       <c r="BO4" t="n">
-        <v>87.50980392156863</v>
+        <v>101.8095238095238</v>
       </c>
       <c r="BP4" t="n">
-        <v>67.53854382469898</v>
+        <v>92.58867049894334</v>
       </c>
       <c r="BQ4" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="BR4" t="n">
         <v>8</v>
@@ -9259,28 +10084,28 @@
         <v>333</v>
       </c>
       <c r="BT4" t="n">
-        <v>177.1960784313725</v>
+        <v>281.952380952381</v>
       </c>
       <c r="BU4" t="n">
-        <v>248.9379054790847</v>
+        <v>359.8678196491701</v>
       </c>
       <c r="BV4" t="n">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="BW4" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="BX4" t="n">
         <v>1000</v>
       </c>
       <c r="BY4" t="n">
-        <v>121389.5294117647</v>
+        <v>218384.2857142857</v>
       </c>
       <c r="BZ4" t="n">
-        <v>195081.3950009947</v>
+        <v>274676.8921762701</v>
       </c>
       <c r="CA4" t="n">
-        <v>44536</v>
+        <v>97801</v>
       </c>
       <c r="CB4" t="n">
         <v>6716</v>
@@ -9289,13 +10114,13 @@
         <v>931089</v>
       </c>
       <c r="CD4" t="n">
-        <v>49949.43137254902</v>
+        <v>83491.42857142857</v>
       </c>
       <c r="CE4" t="n">
-        <v>69916.68236329722</v>
+        <v>91595.27736601458</v>
       </c>
       <c r="CF4" t="n">
-        <v>10089</v>
+        <v>34752</v>
       </c>
       <c r="CG4" t="n">
         <v>1094</v>
@@ -9324,31 +10149,31 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>2310.212527601049</v>
+        <v>2307.52977503481</v>
       </c>
       <c r="C5" t="n">
-        <v>17.4788527165246</v>
+        <v>22.26230418867756</v>
       </c>
       <c r="D5" t="n">
-        <v>2315.5604806</v>
+        <v>2314.69973365</v>
       </c>
       <c r="E5" t="n">
-        <v>2237.0490235</v>
+        <v>2189.5210712</v>
       </c>
       <c r="F5" t="n">
         <v>2328.8199285</v>
       </c>
       <c r="G5" t="n">
-        <v>2339.349538461538</v>
+        <v>2289.089303006329</v>
       </c>
       <c r="H5" t="n">
-        <v>329.2130053832836</v>
+        <v>417.2731338998759</v>
       </c>
       <c r="I5" t="n">
-        <v>2444.441500000001</v>
+        <v>2427.927624999999</v>
       </c>
       <c r="J5" t="n">
-        <v>889.5160000000014</v>
+        <v>328.0442500000008</v>
       </c>
       <c r="K5" t="n">
         <v>2693.9845</v>
@@ -9369,58 +10194,58 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>81.38461538461539</v>
+        <v>87.19303797468355</v>
       </c>
       <c r="R5" t="n">
-        <v>68.74442094894641</v>
+        <v>75.48642734479549</v>
       </c>
       <c r="S5" t="n">
-        <v>64.5</v>
+        <v>68</v>
       </c>
       <c r="T5" t="n">
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>327</v>
+        <v>440</v>
       </c>
       <c r="V5" t="n">
-        <v>22.73776223776224</v>
+        <v>24.13291139240506</v>
       </c>
       <c r="W5" t="n">
-        <v>15.68878604629526</v>
+        <v>17.32879223678831</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>3</v>
       </c>
       <c r="Z5" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.472027972027972</v>
+        <v>3.911392405063291</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.976679077267044</v>
+        <v>3.824531919628805</v>
       </c>
       <c r="AC5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>338.3776223776224</v>
+        <v>353.8924050632912</v>
       </c>
       <c r="AG5" t="n">
-        <v>173.2958044742058</v>
+        <v>186.3753708588362</v>
       </c>
       <c r="AH5" t="n">
-        <v>291.5</v>
+        <v>299.5</v>
       </c>
       <c r="AI5" t="n">
         <v>66</v>
@@ -9429,25 +10254,25 @@
         <v>1113</v>
       </c>
       <c r="AK5" t="n">
-        <v>48.35314685314685</v>
+        <v>48.69303797468354</v>
       </c>
       <c r="AL5" t="n">
-        <v>4.399095667764906</v>
+        <v>4.90131977158349</v>
       </c>
       <c r="AM5" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AN5" t="n">
         <v>41</v>
       </c>
       <c r="AO5" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AP5" t="n">
-        <v>68.4055944055944</v>
+        <v>68.90506329113924</v>
       </c>
       <c r="AQ5" t="n">
-        <v>32.94572629148601</v>
+        <v>33.46607625635222</v>
       </c>
       <c r="AR5" t="n">
         <v>68.5</v>
@@ -9456,13 +10281,13 @@
         <v>9</v>
       </c>
       <c r="AT5" t="n">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0004566433566433566</v>
+        <v>0.0005253164556962025</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0004847223029278838</v>
+        <v>0.000768253984859278</v>
       </c>
       <c r="AW5" t="n">
         <v>0.0002</v>
@@ -9471,13 +10296,13 @@
         <v>0.0002</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.003</v>
+        <v>0.0064</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15.15734265734266</v>
+        <v>15.40189873417722</v>
       </c>
       <c r="BA5" t="n">
-        <v>5.388069856024704</v>
+        <v>5.97825659694522</v>
       </c>
       <c r="BB5" t="n">
         <v>13</v>
@@ -9486,16 +10311,16 @@
         <v>9</v>
       </c>
       <c r="BD5" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="BE5" t="n">
-        <v>7.321678321678322</v>
+        <v>7.537974683544304</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.950794018788983</v>
+        <v>5.934709392009941</v>
       </c>
       <c r="BG5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH5" t="n">
         <v>1</v>
@@ -9519,28 +10344,28 @@
         <v>40</v>
       </c>
       <c r="BO5" t="n">
-        <v>59.27972027972028</v>
+        <v>61.00949367088607</v>
       </c>
       <c r="BP5" t="n">
-        <v>33.23566158999983</v>
+        <v>34.41792498652029</v>
       </c>
       <c r="BQ5" t="n">
-        <v>59.5</v>
+        <v>60</v>
       </c>
       <c r="BR5" t="n">
         <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="BT5" t="n">
-        <v>126.9020979020979</v>
+        <v>124.7151898734177</v>
       </c>
       <c r="BU5" t="n">
-        <v>74.02662533670744</v>
+        <v>73.30801223211655</v>
       </c>
       <c r="BV5" t="n">
-        <v>113.5</v>
+        <v>112</v>
       </c>
       <c r="BW5" t="n">
         <v>8</v>
@@ -9549,34 +10374,34 @@
         <v>333</v>
       </c>
       <c r="BY5" t="n">
-        <v>24609.51748251748</v>
+        <v>27351.63924050633</v>
       </c>
       <c r="BZ5" t="n">
-        <v>18579.00308180523</v>
+        <v>23841.5869990096</v>
       </c>
       <c r="CA5" t="n">
-        <v>18303</v>
+        <v>18922</v>
       </c>
       <c r="CB5" t="n">
         <v>6326</v>
       </c>
       <c r="CC5" t="n">
-        <v>103950</v>
+        <v>151006</v>
       </c>
       <c r="CD5" t="n">
-        <v>6361.463933566434</v>
+        <v>8270.505332278481</v>
       </c>
       <c r="CE5" t="n">
-        <v>7649.757140650728</v>
+        <v>14266.759405256</v>
       </c>
       <c r="CF5" t="n">
-        <v>3284.5</v>
+        <v>3374</v>
       </c>
       <c r="CG5" t="n">
         <v>849.361</v>
       </c>
       <c r="CH5" t="n">
-        <v>56119</v>
+        <v>125057</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
@@ -9625,7 +10450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM6"/>
+  <dimension ref="A1:CM5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10263,34 +11088,34 @@
         <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>2941.50315239661</v>
+        <v>2940.449961085366</v>
       </c>
       <c r="C4" t="n">
-        <v>26.52105572650998</v>
+        <v>28.57067860259999</v>
       </c>
       <c r="D4" t="n">
-        <v>2946.3290832</v>
+        <v>2946.3441547</v>
       </c>
       <c r="E4" t="n">
         <v>2847.0779055</v>
       </c>
       <c r="F4" t="n">
-        <v>2979.847075</v>
+        <v>2977.8879027</v>
       </c>
       <c r="G4" t="n">
-        <v>2972.17761440678</v>
+        <v>2952.682695121951</v>
       </c>
       <c r="H4" t="n">
-        <v>578.8440160610595</v>
+        <v>650.1065283919808</v>
       </c>
       <c r="I4" t="n">
-        <v>3137.5</v>
+        <v>3151.65475</v>
       </c>
       <c r="J4" t="n">
         <v>636.8275000000012</v>
       </c>
       <c r="K4" t="n">
-        <v>3620.33425</v>
+        <v>3574.20025</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -10308,13 +11133,13 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.5028248587571</v>
+        <v>157.0243902439024</v>
       </c>
       <c r="R4" t="n">
-        <v>159.8327650266545</v>
+        <v>188.9703002861664</v>
       </c>
       <c r="S4" t="n">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -10323,28 +11148,28 @@
         <v>915</v>
       </c>
       <c r="V4" t="n">
-        <v>62.37853107344633</v>
+        <v>85.60975609756098</v>
       </c>
       <c r="W4" t="n">
-        <v>44.75346853102302</v>
+        <v>58.62033693556379</v>
       </c>
       <c r="X4" t="n">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="Y4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z4" t="n">
         <v>192</v>
       </c>
       <c r="AA4" t="n">
-        <v>29.12429378531073</v>
+        <v>67.58536585365853</v>
       </c>
       <c r="AB4" t="n">
-        <v>59.49862801783004</v>
+        <v>111.7682816387896</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -10353,28 +11178,28 @@
         <v>590</v>
       </c>
       <c r="AF4" t="n">
-        <v>731.457627118644</v>
+        <v>1022.09756097561</v>
       </c>
       <c r="AG4" t="n">
-        <v>485.609656258147</v>
+        <v>647.7316498704555</v>
       </c>
       <c r="AH4" t="n">
-        <v>695</v>
+        <v>1156</v>
       </c>
       <c r="AI4" t="n">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="AJ4" t="n">
         <v>2232</v>
       </c>
       <c r="AK4" t="n">
-        <v>58.14689265536723</v>
+        <v>62.8780487804878</v>
       </c>
       <c r="AL4" t="n">
-        <v>11.2250179163049</v>
+        <v>14.21477246028092</v>
       </c>
       <c r="AM4" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AN4" t="n">
         <v>41</v>
@@ -10383,28 +11208,28 @@
         <v>90</v>
       </c>
       <c r="AP4" t="n">
-        <v>85.81920903954803</v>
+        <v>80.1219512195122</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34.43836842571629</v>
+        <v>30.80194403114129</v>
       </c>
       <c r="AR4" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AS4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT4" t="n">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.01063502824858757</v>
+        <v>0.0222</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.02249357267098491</v>
+        <v>0.04076287526659522</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0024</v>
+        <v>0.0028</v>
       </c>
       <c r="AX4" t="n">
         <v>0.0002</v>
@@ -10413,13 +11238,13 @@
         <v>0.1372</v>
       </c>
       <c r="AZ4" t="n">
-        <v>31.63841807909604</v>
+        <v>35.02439024390244</v>
       </c>
       <c r="BA4" t="n">
-        <v>14.28382324779387</v>
+        <v>16.337820853587</v>
       </c>
       <c r="BB4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BC4" t="n">
         <v>9</v>
@@ -10428,13 +11253,13 @@
         <v>65</v>
       </c>
       <c r="BE4" t="n">
-        <v>14.04519774011299</v>
+        <v>14.51219512195122</v>
       </c>
       <c r="BF4" t="n">
-        <v>11.58997372783101</v>
+        <v>14.52949061601871</v>
       </c>
       <c r="BG4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BH4" t="n">
         <v>1</v>
@@ -10458,61 +11283,61 @@
         <v>40</v>
       </c>
       <c r="BO4" t="n">
-        <v>93.22598870056497</v>
+        <v>77.21951219512195</v>
       </c>
       <c r="BP4" t="n">
-        <v>54.344072210189</v>
+        <v>32.60790716614756</v>
       </c>
       <c r="BQ4" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BS4" t="n">
-        <v>333</v>
+        <v>136</v>
       </c>
       <c r="BT4" t="n">
-        <v>162.7457627118644</v>
+        <v>228.7560975609756</v>
       </c>
       <c r="BU4" t="n">
-        <v>172.3562239975493</v>
+        <v>294.951502834602</v>
       </c>
       <c r="BV4" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="BW4" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="BX4" t="n">
         <v>1000</v>
       </c>
       <c r="BY4" t="n">
-        <v>184733.2485875706</v>
+        <v>424683.4390243902</v>
       </c>
       <c r="BZ4" t="n">
-        <v>371464.3785189834</v>
+        <v>697748.4281034622</v>
       </c>
       <c r="CA4" t="n">
-        <v>70260</v>
+        <v>233947</v>
       </c>
       <c r="CB4" t="n">
-        <v>6262</v>
+        <v>6320</v>
       </c>
       <c r="CC4" t="n">
         <v>3686000</v>
       </c>
       <c r="CD4" t="n">
-        <v>119122.1199491525</v>
+        <v>245189.9333658536</v>
       </c>
       <c r="CE4" t="n">
-        <v>334670.08072885</v>
+        <v>653659.3977475958</v>
       </c>
       <c r="CF4" t="n">
-        <v>16338</v>
+        <v>63845</v>
       </c>
       <c r="CG4" t="n">
-        <v>756.9349999999999</v>
+        <v>901.268</v>
       </c>
       <c r="CH4" t="n">
         <v>3933000</v>
@@ -10538,31 +11363,31 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>2953.771060696501</v>
+        <v>2953.211549329799</v>
       </c>
       <c r="C5" t="n">
-        <v>14.07996885121308</v>
+        <v>15.05710102436073</v>
       </c>
       <c r="D5" t="n">
-        <v>2953.0339745</v>
+        <v>2952.83777565</v>
       </c>
       <c r="E5" t="n">
-        <v>2898.8755377</v>
+        <v>2862.3996712</v>
       </c>
       <c r="F5" t="n">
         <v>2979.9424728</v>
       </c>
       <c r="G5" t="n">
-        <v>3239.972915998543</v>
+        <v>3227.720227910603</v>
       </c>
       <c r="H5" t="n">
-        <v>246.5094227165215</v>
+        <v>274.7723210567413</v>
       </c>
       <c r="I5" t="n">
-        <v>3270.921625</v>
+        <v>3266.989750000001</v>
       </c>
       <c r="J5" t="n">
-        <v>2049.157000000001</v>
+        <v>1038.403</v>
       </c>
       <c r="K5" t="n">
         <v>3646.022499999999</v>
@@ -10583,25 +11408,25 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>72.83527696793003</v>
+        <v>77.17394317394317</v>
       </c>
       <c r="R5" t="n">
-        <v>61.61254383526575</v>
+        <v>71.04394783216546</v>
       </c>
       <c r="S5" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>387</v>
+        <v>602</v>
       </c>
       <c r="V5" t="n">
-        <v>25.06122448979592</v>
+        <v>26.62924462924463</v>
       </c>
       <c r="W5" t="n">
-        <v>19.00698985233342</v>
+        <v>21.40993219158533</v>
       </c>
       <c r="X5" t="n">
         <v>19</v>
@@ -10610,13 +11435,13 @@
         <v>2</v>
       </c>
       <c r="Z5" t="n">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.135932944606414</v>
+        <v>4.843035343035343</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.905088871013627</v>
+        <v>7.009424084768799</v>
       </c>
       <c r="AC5" t="n">
         <v>2</v>
@@ -10625,28 +11450,28 @@
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="AF5" t="n">
-        <v>320.7434402332361</v>
+        <v>337.3516978516978</v>
       </c>
       <c r="AG5" t="n">
-        <v>185.4872188101749</v>
+        <v>212.8179652137952</v>
       </c>
       <c r="AH5" t="n">
-        <v>272</v>
+        <v>279.5</v>
       </c>
       <c r="AI5" t="n">
         <v>46</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1306</v>
+        <v>1646</v>
       </c>
       <c r="AK5" t="n">
-        <v>49.68148688046647</v>
+        <v>50.05093555093555</v>
       </c>
       <c r="AL5" t="n">
-        <v>5.496282491818259</v>
+        <v>6.007433652549065</v>
       </c>
       <c r="AM5" t="n">
         <v>49</v>
@@ -10655,16 +11480,16 @@
         <v>40</v>
       </c>
       <c r="AO5" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AP5" t="n">
-        <v>78.58965014577259</v>
+        <v>79.04227304227304</v>
       </c>
       <c r="AQ5" t="n">
-        <v>33.47133513372347</v>
+        <v>33.58373400680976</v>
       </c>
       <c r="AR5" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AS5" t="n">
         <v>6</v>
@@ -10673,10 +11498,10 @@
         <v>176</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.001997667638483965</v>
+        <v>0.002238115038115038</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.001891807950481314</v>
+        <v>0.003154857460562525</v>
       </c>
       <c r="AW5" t="n">
         <v>0.0014</v>
@@ -10685,13 +11510,13 @@
         <v>0.0002</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0156</v>
+        <v>0.0488</v>
       </c>
       <c r="AZ5" t="n">
-        <v>26.35787172011662</v>
+        <v>26.54885654885655</v>
       </c>
       <c r="BA5" t="n">
-        <v>6.555146752770909</v>
+        <v>7.091201158763017</v>
       </c>
       <c r="BB5" t="n">
         <v>26</v>
@@ -10700,13 +11525,13 @@
         <v>10</v>
       </c>
       <c r="BD5" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="BE5" t="n">
-        <v>7.244169096209912</v>
+        <v>7.57033957033957</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.466312391821361</v>
+        <v>5.978100446237969</v>
       </c>
       <c r="BG5" t="n">
         <v>6</v>
@@ -10715,7 +11540,7 @@
         <v>1</v>
       </c>
       <c r="BI5" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="BJ5" t="n">
         <v>40</v>
@@ -10733,25 +11558,25 @@
         <v>40</v>
       </c>
       <c r="BO5" t="n">
-        <v>70.45007288629738</v>
+        <v>71.78655578655578</v>
       </c>
       <c r="BP5" t="n">
-        <v>35.48539085176905</v>
+        <v>37.31907722014427</v>
       </c>
       <c r="BQ5" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BR5" t="n">
         <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="BT5" t="n">
-        <v>131.350583090379</v>
+        <v>131.9234234234234</v>
       </c>
       <c r="BU5" t="n">
-        <v>65.17243942619362</v>
+        <v>67.60441074638707</v>
       </c>
       <c r="BV5" t="n">
         <v>129</v>
@@ -10763,34 +11588,34 @@
         <v>500</v>
       </c>
       <c r="BY5" t="n">
-        <v>28705.56887755102</v>
+        <v>33126.1528066528</v>
       </c>
       <c r="BZ5" t="n">
-        <v>30734.37706750642</v>
+        <v>43882.13159150406</v>
       </c>
       <c r="CA5" t="n">
-        <v>17614</v>
+        <v>18147.5</v>
       </c>
       <c r="CB5" t="n">
         <v>6249</v>
       </c>
       <c r="CC5" t="n">
-        <v>262733</v>
+        <v>433167</v>
       </c>
       <c r="CD5" t="n">
-        <v>11601.3932372449</v>
+        <v>15340.59425017325</v>
       </c>
       <c r="CE5" t="n">
-        <v>25865.08430613149</v>
+        <v>39626.5946266884</v>
       </c>
       <c r="CF5" t="n">
-        <v>3444.5</v>
+        <v>3608.5</v>
       </c>
       <c r="CG5" t="n">
-        <v>772.979</v>
+        <v>756.9349999999999</v>
       </c>
       <c r="CH5" t="n">
-        <v>311047</v>
+        <v>377663</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
@@ -10806,281 +11631,6 @@
       </c>
       <c r="CM5" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2955.52187415</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11.57334825865932</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2956.6697531</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2938.046035</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2972.2625875</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3283.2415</v>
-      </c>
-      <c r="H6" t="n">
-        <v>190.202928571894</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3327.016375</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2959.77925</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3511.8145</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>89.83333333333333</v>
-      </c>
-      <c r="R6" t="n">
-        <v>13.01409492306963</v>
-      </c>
-      <c r="S6" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>72</v>
-      </c>
-      <c r="U6" t="n">
-        <v>107</v>
-      </c>
-      <c r="V6" t="n">
-        <v>92.16666666666667</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8.232051182218601</v>
-      </c>
-      <c r="X6" t="n">
-        <v>92</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>106</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>40.66666666666666</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8.406346808612327</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>33</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>54</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>985.8333333333334</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>67.05047849692548</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>975.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>905</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1066</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>67.83333333333333</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>2.562550812504341</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>68</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>64</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>71</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>5.431390245600107</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>94</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>85</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0.0009000000000000001</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0.0005176871642217914</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0.0007999999999999999</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>21.66666666666667</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>4.273952113286561</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>21</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>17</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>27</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>13.16666666666667</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>1.940790217067952</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>16</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>40</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>40</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>40</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>40</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>87.66666666666667</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>5.465040408511785</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>80</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>95</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>146.3333333333333</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>8.406346808612323</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>133</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>156</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>258038.6666666667</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>52193.5984835944</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>242425</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>212234</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>340868</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>234484</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>35802.9533921435</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>217176</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>209268</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>299347</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11752,34 +12302,34 @@
         <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>3418.981185579167</v>
+        <v>3444.582096210526</v>
       </c>
       <c r="C4" t="n">
-        <v>52.7148940852928</v>
+        <v>31.76499577943861</v>
       </c>
       <c r="D4" t="n">
-        <v>3435.9765046</v>
+        <v>3461.0065227</v>
       </c>
       <c r="E4" t="n">
-        <v>3270.6686952</v>
+        <v>3365.504335</v>
       </c>
       <c r="F4" t="n">
-        <v>3475.424268</v>
+        <v>3471.7698557</v>
       </c>
       <c r="G4" t="n">
-        <v>2755.4582734375</v>
+        <v>3145.998368421052</v>
       </c>
       <c r="H4" t="n">
-        <v>807.8955193512891</v>
+        <v>474.0647547572789</v>
       </c>
       <c r="I4" t="n">
-        <v>3020.59225</v>
+        <v>3391.761250000001</v>
       </c>
       <c r="J4" t="n">
-        <v>334.3352500000001</v>
+        <v>1922.812749999999</v>
       </c>
       <c r="K4" t="n">
-        <v>3571.054749999999</v>
+        <v>3530.687500000002</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -11797,28 +12347,28 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.1145833333333</v>
+        <v>114.9473684210526</v>
       </c>
       <c r="R4" t="n">
-        <v>95.08033941347946</v>
+        <v>126.7059034335507</v>
       </c>
       <c r="S4" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U4" t="n">
         <v>490</v>
       </c>
       <c r="V4" t="n">
-        <v>52.22916666666666</v>
+        <v>60.68421052631579</v>
       </c>
       <c r="W4" t="n">
-        <v>33.08536937479567</v>
+        <v>41.2661451657664</v>
       </c>
       <c r="X4" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="Y4" t="n">
         <v>4</v>
@@ -11827,13 +12377,13 @@
         <v>133</v>
       </c>
       <c r="AA4" t="n">
-        <v>14.33333333333333</v>
+        <v>20.89473684210526</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.75168251269002</v>
+        <v>20.29749502016363</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -11842,58 +12392,58 @@
         <v>66</v>
       </c>
       <c r="AF4" t="n">
-        <v>570.5625</v>
+        <v>616</v>
       </c>
       <c r="AG4" t="n">
-        <v>349.8779580458246</v>
+        <v>397.2386632184178</v>
       </c>
       <c r="AH4" t="n">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="AI4" t="n">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1570</v>
+        <v>1451</v>
       </c>
       <c r="AK4" t="n">
-        <v>55.89583333333334</v>
+        <v>58.21052631578947</v>
       </c>
       <c r="AL4" t="n">
-        <v>8.298990638266506</v>
+        <v>11.17327638891824</v>
       </c>
       <c r="AM4" t="n">
-        <v>55.5</v>
+        <v>59</v>
       </c>
       <c r="AN4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AO4" t="n">
         <v>76</v>
       </c>
       <c r="AP4" t="n">
-        <v>93.59375</v>
+        <v>91.31578947368421</v>
       </c>
       <c r="AQ4" t="n">
-        <v>30.30253702250028</v>
+        <v>32.01918284677856</v>
       </c>
       <c r="AR4" t="n">
-        <v>98.5</v>
+        <v>95</v>
       </c>
       <c r="AS4" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.00201875</v>
+        <v>0.00483157894736842</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.002901335899202297</v>
+        <v>0.004442353309224358</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0004</v>
+        <v>0.0036</v>
       </c>
       <c r="AX4" t="n">
         <v>0.0002</v>
@@ -11902,13 +12452,13 @@
         <v>0.0132</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21.28125</v>
+        <v>30.42105263157895</v>
       </c>
       <c r="BA4" t="n">
-        <v>11.56282894268936</v>
+        <v>12.46022912877289</v>
       </c>
       <c r="BB4" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="BC4" t="n">
         <v>10</v>
@@ -11917,13 +12467,13 @@
         <v>45</v>
       </c>
       <c r="BE4" t="n">
-        <v>13.40625</v>
+        <v>13.57894736842105</v>
       </c>
       <c r="BF4" t="n">
-        <v>10.03423416425777</v>
+        <v>12.65488833733468</v>
       </c>
       <c r="BG4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BH4" t="n">
         <v>1</v>
@@ -11947,61 +12497,61 @@
         <v>40</v>
       </c>
       <c r="BO4" t="n">
-        <v>96.26041666666667</v>
+        <v>112.8947368421053</v>
       </c>
       <c r="BP4" t="n">
-        <v>51.20613548593086</v>
+        <v>82.18873587112512</v>
       </c>
       <c r="BQ4" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="BR4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="BS4" t="n">
         <v>333</v>
       </c>
       <c r="BT4" t="n">
-        <v>148.7083333333333</v>
+        <v>159.0526315789474</v>
       </c>
       <c r="BU4" t="n">
-        <v>75.49707790325282</v>
+        <v>66.06181758542569</v>
       </c>
       <c r="BV4" t="n">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="BW4" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BX4" t="n">
-        <v>500</v>
+        <v>307</v>
       </c>
       <c r="BY4" t="n">
-        <v>92513.22916666667</v>
+        <v>133743.2105263158</v>
       </c>
       <c r="BZ4" t="n">
-        <v>86263.98291529373</v>
+        <v>127151.3001902235</v>
       </c>
       <c r="CA4" t="n">
-        <v>65518.5</v>
+        <v>109535</v>
       </c>
       <c r="CB4" t="n">
-        <v>6518</v>
+        <v>7058</v>
       </c>
       <c r="CC4" t="n">
         <v>416844</v>
       </c>
       <c r="CD4" t="n">
-        <v>68317.69791666667</v>
+        <v>115590.8947368421</v>
       </c>
       <c r="CE4" t="n">
-        <v>94194.68112541341</v>
+        <v>141995.2207575604</v>
       </c>
       <c r="CF4" t="n">
-        <v>18715.5</v>
+        <v>48549</v>
       </c>
       <c r="CG4" t="n">
-        <v>1011</v>
+        <v>1058</v>
       </c>
       <c r="CH4" t="n">
         <v>398482</v>
@@ -12027,31 +12577,31 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>3439.419414674245</v>
+        <v>3436.501339685128</v>
       </c>
       <c r="C5" t="n">
-        <v>35.66193105333515</v>
+        <v>39.10499061052134</v>
       </c>
       <c r="D5" t="n">
-        <v>3450.864929</v>
+        <v>3449.74583985</v>
       </c>
       <c r="E5" t="n">
-        <v>3301.112792</v>
+        <v>3270.6686952</v>
       </c>
       <c r="F5" t="n">
         <v>3475.956421</v>
       </c>
       <c r="G5" t="n">
-        <v>3068.518201510334</v>
+        <v>3023.863985835694</v>
       </c>
       <c r="H5" t="n">
-        <v>533.8488708419005</v>
+        <v>589.2947939385357</v>
       </c>
       <c r="I5" t="n">
-        <v>3239.728749999998</v>
+        <v>3221.117875</v>
       </c>
       <c r="J5" t="n">
-        <v>852.8184999999994</v>
+        <v>334.3352500000001</v>
       </c>
       <c r="K5" t="n">
         <v>3617.188749999999</v>
@@ -12072,70 +12622,70 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>77.71701112877584</v>
+        <v>82.07223796033995</v>
       </c>
       <c r="R5" t="n">
-        <v>56.12905437643279</v>
+        <v>61.39770730425096</v>
       </c>
       <c r="S5" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="V5" t="n">
-        <v>23.46740858505564</v>
+        <v>26.37677053824363</v>
       </c>
       <c r="W5" t="n">
-        <v>16.72218585599795</v>
+        <v>20.49285566692867</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
         <v>2</v>
       </c>
       <c r="Z5" t="n">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.643879173290938</v>
+        <v>4.633144475920679</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.578560748396434</v>
+        <v>5.738508025050167</v>
       </c>
       <c r="AC5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="n">
-        <v>320.1987281399046</v>
+        <v>346.2818696883853</v>
       </c>
       <c r="AG5" t="n">
-        <v>166.5751497310866</v>
+        <v>206.5899934685173</v>
       </c>
       <c r="AH5" t="n">
-        <v>274</v>
+        <v>287.5</v>
       </c>
       <c r="AI5" t="n">
         <v>57</v>
       </c>
       <c r="AJ5" t="n">
-        <v>822</v>
+        <v>1570</v>
       </c>
       <c r="AK5" t="n">
-        <v>48.78696343402225</v>
+        <v>49.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>4.860384034419153</v>
+        <v>5.57813614363072</v>
       </c>
       <c r="AM5" t="n">
         <v>48</v>
@@ -12144,16 +12694,16 @@
         <v>40</v>
       </c>
       <c r="AO5" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AP5" t="n">
-        <v>74.13195548489666</v>
+        <v>76.31586402266289</v>
       </c>
       <c r="AQ5" t="n">
-        <v>33.3398359614189</v>
+        <v>33.56400812764815</v>
       </c>
       <c r="AR5" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AS5" t="n">
         <v>9</v>
@@ -12162,10 +12712,10 @@
         <v>168</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0004645468998410175</v>
+        <v>0.000558356940509915</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0004596789863458903</v>
+        <v>0.0007904534061577388</v>
       </c>
       <c r="AW5" t="n">
         <v>0.0002</v>
@@ -12174,13 +12724,13 @@
         <v>0.0002</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.003</v>
+        <v>0.0078</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15.38155802861685</v>
+        <v>15.77903682719547</v>
       </c>
       <c r="BA5" t="n">
-        <v>5.297281190813015</v>
+        <v>6.12650673261208</v>
       </c>
       <c r="BB5" t="n">
         <v>14</v>
@@ -12189,13 +12739,13 @@
         <v>10</v>
       </c>
       <c r="BD5" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="BE5" t="n">
-        <v>7.456279809220986</v>
+        <v>8.100566572237961</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.302332093389523</v>
+        <v>6.157721298778811</v>
       </c>
       <c r="BG5" t="n">
         <v>6</v>
@@ -12204,7 +12754,7 @@
         <v>1</v>
       </c>
       <c r="BI5" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="BJ5" t="n">
         <v>40</v>
@@ -12222,64 +12772,64 @@
         <v>40</v>
       </c>
       <c r="BO5" t="n">
-        <v>64.40222575516694</v>
+        <v>67.42917847025495</v>
       </c>
       <c r="BP5" t="n">
-        <v>34.63874613625078</v>
+        <v>36.26723036672457</v>
       </c>
       <c r="BQ5" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="BR5" t="n">
         <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="BT5" t="n">
-        <v>118.6248012718601</v>
+        <v>121.6274787535411</v>
       </c>
       <c r="BU5" t="n">
-        <v>60.30048764868359</v>
+        <v>62.97462088057966</v>
       </c>
       <c r="BV5" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BW5" t="n">
         <v>5</v>
       </c>
       <c r="BX5" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="BY5" t="n">
-        <v>25615.84101748808</v>
+        <v>31802.42634560907</v>
       </c>
       <c r="BZ5" t="n">
-        <v>22540.16496599857</v>
+        <v>36034.88595792902</v>
       </c>
       <c r="CA5" t="n">
-        <v>17949</v>
+        <v>19088.5</v>
       </c>
       <c r="CB5" t="n">
         <v>6246</v>
       </c>
       <c r="CC5" t="n">
-        <v>131071</v>
+        <v>254407</v>
       </c>
       <c r="CD5" t="n">
-        <v>7890.289329093799</v>
+        <v>13208.58921813031</v>
       </c>
       <c r="CE5" t="n">
-        <v>12575.4994151233</v>
+        <v>31272.54994432136</v>
       </c>
       <c r="CF5" t="n">
-        <v>3342</v>
+        <v>3575.5</v>
       </c>
       <c r="CG5" t="n">
         <v>826.269</v>
       </c>
       <c r="CH5" t="n">
-        <v>92317</v>
+        <v>337833</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
@@ -12328,7 +12878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM6"/>
+  <dimension ref="A1:CM5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12966,31 +13516,31 @@
         <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>4169.801507427612</v>
+        <v>4188.441377481818</v>
       </c>
       <c r="C4" t="n">
-        <v>50.76896178163128</v>
+        <v>26.76597724521724</v>
       </c>
       <c r="D4" t="n">
-        <v>4180.23412575</v>
+        <v>4195.4606765</v>
       </c>
       <c r="E4" t="n">
-        <v>3970.0006422</v>
+        <v>4116.860063</v>
       </c>
       <c r="F4" t="n">
         <v>4227.4782663</v>
       </c>
       <c r="G4" t="n">
-        <v>3718.998882462686</v>
+        <v>4024.451568181818</v>
       </c>
       <c r="H4" t="n">
-        <v>818.8770181402199</v>
+        <v>367.1894847889033</v>
       </c>
       <c r="I4" t="n">
-        <v>3964.504375</v>
+        <v>4100.54725</v>
       </c>
       <c r="J4" t="n">
-        <v>314.9379999999983</v>
+        <v>2814.03775</v>
       </c>
       <c r="K4" t="n">
         <v>4485.870999999999</v>
@@ -13011,13 +13561,13 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>143.8358208955224</v>
+        <v>203.6666666666667</v>
       </c>
       <c r="R4" t="n">
-        <v>157.2290218876819</v>
+        <v>233.1600398152879</v>
       </c>
       <c r="S4" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -13026,13 +13576,13 @@
         <v>900</v>
       </c>
       <c r="V4" t="n">
-        <v>65.45522388059702</v>
+        <v>89.54545454545455</v>
       </c>
       <c r="W4" t="n">
-        <v>43.83609520911487</v>
+        <v>55.21893408802983</v>
       </c>
       <c r="X4" t="n">
-        <v>68.5</v>
+        <v>99</v>
       </c>
       <c r="Y4" t="n">
         <v>3</v>
@@ -13041,13 +13591,13 @@
         <v>203</v>
       </c>
       <c r="AA4" t="n">
-        <v>27.5</v>
+        <v>57.48484848484848</v>
       </c>
       <c r="AB4" t="n">
-        <v>41.91985730045159</v>
+        <v>73.08775599071006</v>
       </c>
       <c r="AC4" t="n">
-        <v>19.5</v>
+        <v>56</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -13056,58 +13606,58 @@
         <v>375</v>
       </c>
       <c r="AF4" t="n">
-        <v>746.0895522388059</v>
+        <v>985.4848484848485</v>
       </c>
       <c r="AG4" t="n">
-        <v>454.1885843078704</v>
+        <v>556.1768559332162</v>
       </c>
       <c r="AH4" t="n">
-        <v>814.5</v>
+        <v>1020</v>
       </c>
       <c r="AI4" t="n">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="AJ4" t="n">
         <v>2100</v>
       </c>
       <c r="AK4" t="n">
-        <v>58.32835820895522</v>
+        <v>63.15151515151515</v>
       </c>
       <c r="AL4" t="n">
-        <v>10.16612103179613</v>
+        <v>13.59025664796569</v>
       </c>
       <c r="AM4" t="n">
-        <v>58.5</v>
+        <v>66</v>
       </c>
       <c r="AN4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO4" t="n">
         <v>90</v>
       </c>
       <c r="AP4" t="n">
-        <v>88.32089552238806</v>
+        <v>88.24242424242425</v>
       </c>
       <c r="AQ4" t="n">
-        <v>33.08330809305471</v>
+        <v>33.03504796332819</v>
       </c>
       <c r="AR4" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AS4" t="n">
         <v>15</v>
       </c>
       <c r="AT4" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.004359701492537314</v>
+        <v>0.007630303030303031</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.008478252758383377</v>
+        <v>0.01513036030735234</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
       <c r="AX4" t="n">
         <v>0.0002</v>
@@ -13116,13 +13666,13 @@
         <v>0.0806</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25.92537313432836</v>
+        <v>28.21212121212121</v>
       </c>
       <c r="BA4" t="n">
-        <v>13.14444155697329</v>
+        <v>14.87186432445</v>
       </c>
       <c r="BB4" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
         <v>10</v>
@@ -13131,13 +13681,13 @@
         <v>61</v>
       </c>
       <c r="BE4" t="n">
-        <v>14.63432835820896</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="BF4" t="n">
-        <v>15.86339288286184</v>
+        <v>25.99479114489413</v>
       </c>
       <c r="BG4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BH4" t="n">
         <v>1</v>
@@ -13161,13 +13711,13 @@
         <v>40</v>
       </c>
       <c r="BO4" t="n">
-        <v>96.1044776119403</v>
+        <v>100.3333333333333</v>
       </c>
       <c r="BP4" t="n">
-        <v>51.29793099298594</v>
+        <v>66.78728671436404</v>
       </c>
       <c r="BQ4" t="n">
-        <v>85.5</v>
+        <v>83</v>
       </c>
       <c r="BR4" t="n">
         <v>10</v>
@@ -13176,46 +13726,46 @@
         <v>333</v>
       </c>
       <c r="BT4" t="n">
-        <v>169.7014925373134</v>
+        <v>238.3636363636364</v>
       </c>
       <c r="BU4" t="n">
-        <v>167.1541555782533</v>
+        <v>290.7781390276161</v>
       </c>
       <c r="BV4" t="n">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="BW4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="BX4" t="n">
         <v>1000</v>
       </c>
       <c r="BY4" t="n">
-        <v>174625.8432835821</v>
+        <v>362086.8484848485</v>
       </c>
       <c r="BZ4" t="n">
-        <v>261814.7773287101</v>
+        <v>456186.0911859408</v>
       </c>
       <c r="CA4" t="n">
-        <v>125121.5</v>
+        <v>354599</v>
       </c>
       <c r="CB4" t="n">
-        <v>6350</v>
+        <v>7701</v>
       </c>
       <c r="CC4" t="n">
         <v>2345000</v>
       </c>
       <c r="CD4" t="n">
-        <v>118081.7000223881</v>
+        <v>199167.7323636363</v>
       </c>
       <c r="CE4" t="n">
-        <v>182264.1184009476</v>
+        <v>304789.7297293206</v>
       </c>
       <c r="CF4" t="n">
-        <v>45892.5</v>
+        <v>110063</v>
       </c>
       <c r="CG4" t="n">
-        <v>865.635</v>
+        <v>961.168</v>
       </c>
       <c r="CH4" t="n">
         <v>1304000</v>
@@ -13241,31 +13791,31 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>4185.344756759355</v>
+        <v>4184.194079480098</v>
       </c>
       <c r="C5" t="n">
-        <v>34.61173604532298</v>
+        <v>36.58932533430182</v>
       </c>
       <c r="D5" t="n">
-        <v>4193.0224358</v>
+        <v>4192.76243675</v>
       </c>
       <c r="E5" t="n">
-        <v>4018.8536787</v>
+        <v>3970.0006422</v>
       </c>
       <c r="F5" t="n">
         <v>4227.8512175</v>
       </c>
       <c r="G5" t="n">
-        <v>3961.004194664031</v>
+        <v>3942.13616031941</v>
       </c>
       <c r="H5" t="n">
-        <v>507.0478668327154</v>
+        <v>545.2245690676036</v>
       </c>
       <c r="I5" t="n">
-        <v>4109.197375</v>
+        <v>4104.479125</v>
       </c>
       <c r="J5" t="n">
-        <v>1121.2345</v>
+        <v>314.9379999999983</v>
       </c>
       <c r="K5" t="n">
         <v>4494.258999999998</v>
@@ -13286,40 +13836,40 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>79.667325428195</v>
+        <v>82.86425061425061</v>
       </c>
       <c r="R5" t="n">
-        <v>61.92978246416518</v>
+        <v>67.70161675861695</v>
       </c>
       <c r="S5" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>377</v>
+        <v>542</v>
       </c>
       <c r="V5" t="n">
-        <v>24.16139657444005</v>
+        <v>26.62285012285012</v>
       </c>
       <c r="W5" t="n">
-        <v>17.66474312101608</v>
+        <v>21.52413819128047</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
         <v>2</v>
       </c>
       <c r="Z5" t="n">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.869565217391304</v>
+        <v>4.893120393120393</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.197825182682832</v>
+        <v>6.83628029725557</v>
       </c>
       <c r="AC5" t="n">
         <v>2</v>
@@ -13328,28 +13878,28 @@
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="AF5" t="n">
-        <v>325.6436100131752</v>
+        <v>351.004914004914</v>
       </c>
       <c r="AG5" t="n">
-        <v>178.121987546752</v>
+        <v>220.4963194625948</v>
       </c>
       <c r="AH5" t="n">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AI5" t="n">
         <v>48</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1170</v>
+        <v>1455</v>
       </c>
       <c r="AK5" t="n">
-        <v>48.88010540184453</v>
+        <v>49.4514742014742</v>
       </c>
       <c r="AL5" t="n">
-        <v>4.918999741771583</v>
+        <v>5.615259658622494</v>
       </c>
       <c r="AM5" t="n">
         <v>48</v>
@@ -13358,16 +13908,16 @@
         <v>40</v>
       </c>
       <c r="AO5" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AP5" t="n">
-        <v>73.66930171277997</v>
+        <v>74.66400491400492</v>
       </c>
       <c r="AQ5" t="n">
-        <v>31.58796602401753</v>
+        <v>31.82113512848613</v>
       </c>
       <c r="AR5" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AS5" t="n">
         <v>8</v>
@@ -13376,10 +13926,10 @@
         <v>180</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0008260869565217392</v>
+        <v>0.0009785012285012285</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.001034821215605604</v>
+        <v>0.001561665766085909</v>
       </c>
       <c r="AW5" t="n">
         <v>0.0004</v>
@@ -13388,28 +13938,28 @@
         <v>0.0002</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0102</v>
+        <v>0.019</v>
       </c>
       <c r="AZ5" t="n">
-        <v>18.84650856389987</v>
+        <v>19.24692874692875</v>
       </c>
       <c r="BA5" t="n">
-        <v>6.560164058081506</v>
+        <v>7.222886466095879</v>
       </c>
       <c r="BB5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC5" t="n">
         <v>9</v>
       </c>
       <c r="BD5" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="BE5" t="n">
-        <v>7.454545454545454</v>
+        <v>7.806511056511057</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.600779423367606</v>
+        <v>6.077255701969273</v>
       </c>
       <c r="BG5" t="n">
         <v>6</v>
@@ -13418,7 +13968,7 @@
         <v>1</v>
       </c>
       <c r="BI5" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BJ5" t="n">
         <v>40</v>
@@ -13436,28 +13986,28 @@
         <v>40</v>
       </c>
       <c r="BO5" t="n">
-        <v>65.68247694334651</v>
+        <v>67.57248157248158</v>
       </c>
       <c r="BP5" t="n">
-        <v>33.57568957906525</v>
+        <v>35.05377769623645</v>
       </c>
       <c r="BQ5" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BR5" t="n">
         <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>200</v>
+        <v>333</v>
       </c>
       <c r="BT5" t="n">
-        <v>118.566534914361</v>
+        <v>120.3931203931204</v>
       </c>
       <c r="BU5" t="n">
-        <v>61.58094490341041</v>
+        <v>63.86498706010279</v>
       </c>
       <c r="BV5" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BW5" t="n">
         <v>10</v>
@@ -13466,34 +14016,34 @@
         <v>500</v>
       </c>
       <c r="BY5" t="n">
-        <v>27019.38537549407</v>
+        <v>33413.43734643735</v>
       </c>
       <c r="BZ5" t="n">
-        <v>26271.10798361175</v>
+        <v>42778.62080833643</v>
       </c>
       <c r="CA5" t="n">
-        <v>17688.5</v>
+        <v>18573</v>
       </c>
       <c r="CB5" t="n">
         <v>6249</v>
       </c>
       <c r="CC5" t="n">
-        <v>212738</v>
+        <v>332731</v>
       </c>
       <c r="CD5" t="n">
-        <v>8961.049404479578</v>
+        <v>14991.40947850123</v>
       </c>
       <c r="CE5" t="n">
-        <v>17595.93968239552</v>
+        <v>39338.28021553709</v>
       </c>
       <c r="CF5" t="n">
-        <v>3310.5</v>
+        <v>3523.5</v>
       </c>
       <c r="CG5" t="n">
         <v>747.855</v>
       </c>
       <c r="CH5" t="n">
-        <v>215665</v>
+        <v>394637</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
@@ -13509,281 +14059,6 @@
       </c>
       <c r="CM5" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4219.9760105</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.054589809834184</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4220.2127412</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4207.3743638</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4227.6969063</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4383.817</v>
-      </c>
-      <c r="H6" t="n">
-        <v>57.75381750166598</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4385.215</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4273.549749999998</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4460.707000000002</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>157.2222222222222</v>
-      </c>
-      <c r="R6" t="n">
-        <v>33.76306331547012</v>
-      </c>
-      <c r="S6" t="n">
-        <v>162</v>
-      </c>
-      <c r="T6" t="n">
-        <v>90</v>
-      </c>
-      <c r="U6" t="n">
-        <v>191</v>
-      </c>
-      <c r="V6" t="n">
-        <v>94.33333333333333</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8.139410298049851</v>
-      </c>
-      <c r="X6" t="n">
-        <v>94</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>108</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>33.77777777777778</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>5.214829282387338</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1072.666666666667</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>131.9137976104092</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1078</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>809</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1224</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>63.88888888888889</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1.691481927515369</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>64</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>61</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>66</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>88.88888888888889</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>10.81023177878768</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>86</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>76</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0.0007333333333333333</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0.0004123105625617661</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>20.22222222222222</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>19</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>16</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>26</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>20</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>4.636809247747853</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>20</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>28</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>40</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>40</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>40</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>40</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>81.66666666666667</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>10.73545527679194</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>78</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>68</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>98</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>126.8888888888889</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>10.68228023930804</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>127</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>114</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>146</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>214516.8888888889</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>32794.68590505345</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>219374</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>161684</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>254861</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>172525.4444444444</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>49039.05799235725</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>180075</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>79620</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>224169</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
